--- a/tests/regression_data/performance_analysis_evaluate_cascade_isentropic_throat.xlsx
+++ b/tests/regression_data/performance_analysis_evaluate_cascade_isentropic_throat.xlsx
@@ -688,40 +688,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014607956840579</v>
+        <v>2.014607956835915</v>
       </c>
       <c r="C2" t="n">
-        <v>2.29999999996414</v>
+        <v>2.299999999965042</v>
       </c>
       <c r="D2" t="n">
-        <v>2.790805431816324</v>
+        <v>2.790805431831895</v>
       </c>
       <c r="E2" t="n">
-        <v>92.46445086918399</v>
+        <v>92.46445086946986</v>
       </c>
       <c r="F2" t="n">
-        <v>78.96241544062438</v>
+        <v>78.96241544059697</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1460240698088598</v>
+        <v>0.1460240698117964</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.10843951043324</v>
+        <v>-78.10843951040877</v>
       </c>
       <c r="I2" t="n">
-        <v>138477.4854420051</v>
+        <v>138477.4854427296</v>
       </c>
       <c r="J2" t="n">
-        <v>85.11216068961591</v>
+        <v>85.11216069006124</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-22.10880530560605</v>
+        <v>-22.10880530628152</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4695893138591</v>
+        <v>135.4695893152213</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -736,13 +736,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372165.2480874013</v>
+        <v>372165.2480874185</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7225683790716837</v>
+        <v>0.7225683790736995</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -759,40 +759,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.071046019582249</v>
+        <v>2.071046019570479</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999885166</v>
+        <v>2.399999999959281</v>
       </c>
       <c r="D3" t="n">
-        <v>2.801075364105361</v>
+        <v>2.801075364017715</v>
       </c>
       <c r="E3" t="n">
-        <v>92.3875173391712</v>
+        <v>92.38751733849345</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15169257867832</v>
+        <v>78.15169257810639</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1540881838856065</v>
+        <v>0.1540881838855916</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.30578076256393</v>
+        <v>-77.30578076199198</v>
       </c>
       <c r="I3" t="n">
-        <v>143745.3889406891</v>
+        <v>143745.3889351393</v>
       </c>
       <c r="J3" t="n">
-        <v>88.34996247122868</v>
+        <v>88.34996246781762</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-23.97282605613517</v>
+        <v>-23.9728260560818</v>
       </c>
       <c r="M3" t="n">
-        <v>142.2541798754813</v>
+        <v>142.2541798754744</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -807,13 +807,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370466.5012739451</v>
+        <v>370466.5012743207</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7111199635293356</v>
+        <v>0.7111199635182101</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82.20852515286289</v>
+        <v>82.20852515334549</v>
       </c>
       <c r="D2" t="n">
-        <v>82.20852515286289</v>
+        <v>82.20852515334549</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.20852515286289</v>
+        <v>82.20852515334549</v>
       </c>
       <c r="H2" t="n">
-        <v>82.20852515286289</v>
+        <v>82.20852515334549</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3103,97 +3103,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.230753475433</v>
+        <v>292.2307534751931</v>
       </c>
       <c r="L2" t="n">
-        <v>132579.3702993805</v>
+        <v>132579.3702989997</v>
       </c>
       <c r="M2" t="n">
-        <v>1.581292674682916</v>
+        <v>1.581292674679675</v>
       </c>
       <c r="N2" t="n">
-        <v>334562.9119595519</v>
+        <v>334562.9119593804</v>
       </c>
       <c r="O2" t="n">
-        <v>418405.3102846853</v>
+        <v>418405.3102844447</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687079.4765743033</v>
+        <v>-687079.4765736364</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7074052423723</v>
+        <v>717.7074052423617</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.641275457172</v>
+        <v>1006.641275457159</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402578917403291</v>
+        <v>1.402578917403295</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994971152129489</v>
+        <v>0.9994971152129473</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8367684410277</v>
+        <v>342.8367684408868</v>
       </c>
       <c r="W2" t="n">
-        <v>185860.475844812</v>
+        <v>185860.4758442783</v>
       </c>
       <c r="X2" t="n">
-        <v>5.380380069805537e-06</v>
+        <v>5.380380069820987e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132513.3819841743</v>
+        <v>132513.3819837935</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.546407653526095e-06</v>
+        <v>7.54640765354778e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003434887590780047</v>
+        <v>0.003434887590782862</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816545453092632e-05</v>
+        <v>1.816545453091457e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02581513322775292</v>
+        <v>0.02581513322773483</v>
       </c>
       <c r="AD2" t="n">
-        <v>132579.3702993805</v>
+        <v>132579.3702989997</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.581292674682916</v>
+        <v>1.581292674679675</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581292674682916</v>
+        <v>1.581292674679675</v>
       </c>
       <c r="AG2" t="n">
-        <v>334562.9119595519</v>
+        <v>334562.9119593804</v>
       </c>
       <c r="AH2" t="n">
-        <v>418405.3102846853</v>
+        <v>418405.3102844447</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7074052423723</v>
+        <v>717.7074052423617</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.641275457172</v>
+        <v>1006.641275457159</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8367684410277</v>
+        <v>342.8367684408868</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994971152129489</v>
+        <v>0.9994971152129473</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816545453092632e-05</v>
+        <v>1.816545453091457e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02581513322775292</v>
+        <v>0.02581513322773483</v>
       </c>
       <c r="AP2" t="n">
         <v>295.6000000000945</v>
@@ -3382,16 +3382,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2397891145885182</v>
+        <v>0.2397891145900244</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2397891145885182</v>
+        <v>0.2397891145900244</v>
       </c>
       <c r="DB2" t="n">
-        <v>187206.3545961994</v>
+        <v>187206.3545970358</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.790805431840614</v>
+        <v>2.790805431851278</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310884894</v>
@@ -3400,130 +3400,130 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>274.1650384859127</v>
+        <v>274.1650384839326</v>
       </c>
       <c r="DG2" t="n">
-        <v>114.339641425916</v>
+        <v>114.3396414257398</v>
       </c>
       <c r="DH2" t="n">
-        <v>249.1844993705968</v>
+        <v>249.184499368499</v>
       </c>
       <c r="DI2" t="n">
-        <v>65.3517229045277</v>
+        <v>65.35172290437835</v>
       </c>
       <c r="DJ2" t="n">
-        <v>274.1650384859127</v>
+        <v>274.1650384839326</v>
       </c>
       <c r="DK2" t="n">
-        <v>114.339641425916</v>
+        <v>114.3396414257398</v>
       </c>
       <c r="DL2" t="n">
-        <v>249.1844993705968</v>
+        <v>249.184499368499</v>
       </c>
       <c r="DM2" t="n">
-        <v>65.35172290452772</v>
+        <v>65.35172290437833</v>
       </c>
       <c r="DN2" t="n">
-        <v>258.0958630449124</v>
+        <v>258.0958630453547</v>
       </c>
       <c r="DO2" t="n">
-        <v>84173.10359830222</v>
+        <v>84173.10359890288</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.136926240105907</v>
+        <v>1.13692624011207</v>
       </c>
       <c r="DQ2" t="n">
-        <v>310165.5201769361</v>
+        <v>310165.5201772518</v>
       </c>
       <c r="DR2" t="n">
-        <v>384201.1969244984</v>
+        <v>384201.1969249409</v>
       </c>
       <c r="DS2" t="n">
-        <v>3788.783891564149</v>
+        <v>3788.783891563816</v>
       </c>
       <c r="DT2" t="n">
-        <v>-593668.2514594126</v>
+        <v>-593668.2514605595</v>
       </c>
       <c r="DU2" t="n">
-        <v>716.4980321127222</v>
+        <v>716.4980321127338</v>
       </c>
       <c r="DV2" t="n">
-        <v>1005.154227239257</v>
+        <v>1005.154227239273</v>
       </c>
       <c r="DW2" t="n">
         <v>1.402870883364997</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.9993181540916083</v>
+        <v>0.9993181540916094</v>
       </c>
       <c r="DY2" t="n">
-        <v>322.1675625739115</v>
+        <v>322.167562574188</v>
       </c>
       <c r="DZ2" t="n">
-        <v>118003.7782497826</v>
+        <v>118003.7782506249</v>
       </c>
       <c r="EA2" t="n">
-        <v>8.474304931857909e-06</v>
+        <v>8.474304931797425e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>84115.92231975964</v>
+        <v>84115.92232035998</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.188835564565985e-05</v>
+        <v>1.1888355645575e-05</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003888006291895461</v>
+        <v>0.003888006291888828</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.6453019355103e-05</v>
+        <v>1.645301935512576e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02319180040355917</v>
+        <v>0.02319180040359387</v>
       </c>
       <c r="EG2" t="n">
-        <v>84173.10359830222</v>
+        <v>84173.10359890288</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.136926240105907</v>
+        <v>1.13692624011207</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.136926240105907</v>
+        <v>1.13692624011207</v>
       </c>
       <c r="EJ2" t="n">
-        <v>310165.5201769361</v>
+        <v>310165.5201772518</v>
       </c>
       <c r="EK2" t="n">
-        <v>384201.1969244984</v>
+        <v>384201.1969249409</v>
       </c>
       <c r="EL2" t="n">
-        <v>3788.783891564149</v>
+        <v>3788.783891563816</v>
       </c>
       <c r="EM2" t="n">
-        <v>716.4980321127222</v>
+        <v>716.4980321127338</v>
       </c>
       <c r="EN2" t="n">
-        <v>1005.154227239257</v>
+        <v>1005.154227239273</v>
       </c>
       <c r="EO2" t="n">
-        <v>322.1675625739115</v>
+        <v>322.167562574188</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.9993181540916083</v>
+        <v>0.9993181540916094</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.6453019355103e-05</v>
+        <v>1.645301935512576e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.02319180040355917</v>
+        <v>0.02319180040359387</v>
       </c>
       <c r="ES2" t="n">
-        <v>295.5935241440329</v>
+        <v>295.5935241440332</v>
       </c>
       <c r="ET2" t="n">
-        <v>135206.9501605233</v>
+        <v>135206.9501606798</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.594232983782805</v>
+        <v>1.594232983784649</v>
       </c>
       <c r="EV2" t="n">
         <v>336974.3992198327</v>
@@ -3532,55 +3532,55 @@
         <v>421784.4310883891</v>
       </c>
       <c r="EX2" t="n">
-        <v>3788.783891568637</v>
+        <v>3788.783891568304</v>
       </c>
       <c r="EY2" t="n">
-        <v>-698155.5516405278</v>
+        <v>-698155.5516404305</v>
       </c>
       <c r="EZ2" t="n">
-        <v>717.8559613685577</v>
+        <v>717.855961368558</v>
       </c>
       <c r="FA2" t="n">
-        <v>1006.775725221363</v>
+        <v>1006.775725221366</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.402475955346243</v>
+        <v>1.402475955346246</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9995305694123421</v>
+        <v>0.9995305694123415</v>
       </c>
       <c r="FD2" t="n">
-        <v>344.8025797536849</v>
+        <v>344.8025797536852</v>
       </c>
       <c r="FE2" t="n">
-        <v>189536.4766604301</v>
+        <v>189536.4766606498</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.276029277422839e-06</v>
+        <v>5.276029277416724e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>135144.1897723212</v>
+        <v>135144.1897724776</v>
       </c>
       <c r="FH2" t="n">
-        <v>7.399504201288343e-06</v>
+        <v>7.39950420127978e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003395614454317485</v>
+        <v>0.003395614454317495</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.83292346703119e-05</v>
+        <v>1.832923467031194e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02606725562222952</v>
+        <v>0.02606725562222959</v>
       </c>
       <c r="FL2" t="n">
-        <v>135206.9501605233</v>
+        <v>135206.9501606798</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.594232983782805</v>
+        <v>1.594232983784649</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.594232983782805</v>
+        <v>1.594232983784649</v>
       </c>
       <c r="FO2" t="n">
         <v>336974.3992198327</v>
@@ -3589,34 +3589,34 @@
         <v>421784.4310883891</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3788.783891568637</v>
+        <v>3788.783891568304</v>
       </c>
       <c r="FR2" t="n">
-        <v>717.8559613685577</v>
+        <v>717.855961368558</v>
       </c>
       <c r="FS2" t="n">
-        <v>1006.775725221363</v>
+        <v>1006.775725221366</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8025797536849</v>
+        <v>344.8025797536852</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.9995305694123421</v>
+        <v>0.9995305694123415</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.83292346703119e-05</v>
+        <v>1.832923467031194e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02606725562222952</v>
+        <v>0.02606725562222959</v>
       </c>
       <c r="FX2" t="n">
-        <v>295.5935241440329</v>
+        <v>295.5935241440332</v>
       </c>
       <c r="FY2" t="n">
-        <v>135206.9501605233</v>
+        <v>135206.9501606798</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.594232983782805</v>
+        <v>1.594232983784649</v>
       </c>
       <c r="GA2" t="n">
         <v>336974.3992198327</v>
@@ -3625,55 +3625,55 @@
         <v>421784.4310883891</v>
       </c>
       <c r="GC2" t="n">
-        <v>3788.783891568637</v>
+        <v>3788.783891568304</v>
       </c>
       <c r="GD2" t="n">
-        <v>-698155.5516405278</v>
+        <v>-698155.5516404305</v>
       </c>
       <c r="GE2" t="n">
-        <v>717.8559613685577</v>
+        <v>717.855961368558</v>
       </c>
       <c r="GF2" t="n">
-        <v>1006.775725221363</v>
+        <v>1006.775725221366</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.402475955346243</v>
+        <v>1.402475955346246</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.9995305694123421</v>
+        <v>0.9995305694123415</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8025797536849</v>
+        <v>344.8025797536852</v>
       </c>
       <c r="GJ2" t="n">
-        <v>189536.4766604301</v>
+        <v>189536.4766606498</v>
       </c>
       <c r="GK2" t="n">
-        <v>5.276029277422839e-06</v>
+        <v>5.276029277416724e-06</v>
       </c>
       <c r="GL2" t="n">
-        <v>135144.1897723212</v>
+        <v>135144.1897724776</v>
       </c>
       <c r="GM2" t="n">
-        <v>7.399504201288343e-06</v>
+        <v>7.39950420127978e-06</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.003395614454317485</v>
+        <v>0.003395614454317495</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.83292346703119e-05</v>
+        <v>1.832923467031194e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.02606725562222952</v>
+        <v>0.02606725562222959</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135206.9501605233</v>
+        <v>135206.9501606798</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.594232983782805</v>
+        <v>1.594232983784649</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.594232983782805</v>
+        <v>1.594232983784649</v>
       </c>
       <c r="GT2" t="n">
         <v>336974.3992198327</v>
@@ -3682,61 +3682,61 @@
         <v>421784.4310883891</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.783891568637</v>
+        <v>3788.783891568304</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8559613685577</v>
+        <v>717.855961368558</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.775725221363</v>
+        <v>1006.775725221366</v>
       </c>
       <c r="GY2" t="n">
-        <v>344.8025797536849</v>
+        <v>344.8025797536852</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995305694123421</v>
+        <v>0.9995305694123415</v>
       </c>
       <c r="HA2" t="n">
-        <v>1.83292346703119e-05</v>
+        <v>1.832923467031194e-05</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.02606725562222952</v>
+        <v>0.02606725562222959</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.8510013742398845</v>
+        <v>0.8510013742330081</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.8510013742398845</v>
+        <v>0.8510013742330081</v>
       </c>
       <c r="HE2" t="n">
-        <v>495605.9297056676</v>
+        <v>495605.9297040894</v>
       </c>
       <c r="HF2" t="n">
-        <v>2.790805431855983</v>
+        <v>2.790805431866813</v>
       </c>
       <c r="HG2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.01561897651799007</v>
+        <v>0.01561897651784344</v>
       </c>
       <c r="HI2" t="n">
-        <v>-1.808493700565121e-07</v>
+        <v>-1.808493700585868e-07</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.01378013287986178</v>
+        <v>0.01378013287985714</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.02533043296305213</v>
+        <v>0.02533043296311476</v>
       </c>
       <c r="HL2" t="n">
         <v>0</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.05472936151153392</v>
+        <v>0.05472936151144529</v>
       </c>
       <c r="HN2" t="n">
-        <v>-1.271914518152784e-11</v>
+        <v>-1.522120623986822e-11</v>
       </c>
       <c r="HO2" t="n">
         <v>0</v>
@@ -3745,145 +3745,145 @@
         <v>165.3032</v>
       </c>
       <c r="HQ2" t="n">
-        <v>274.1650384859127</v>
+        <v>274.1650384839326</v>
       </c>
       <c r="HR2" t="n">
-        <v>114.339641425916</v>
+        <v>114.3396414257398</v>
       </c>
       <c r="HS2" t="n">
-        <v>249.1844993705968</v>
+        <v>249.184499368499</v>
       </c>
       <c r="HT2" t="n">
-        <v>65.3517229045277</v>
+        <v>65.35172290437835</v>
       </c>
       <c r="HU2" t="n">
-        <v>141.8084129574361</v>
+        <v>141.8084129560532</v>
       </c>
       <c r="HV2" t="n">
-        <v>114.339641425916</v>
+        <v>114.3396414257398</v>
       </c>
       <c r="HW2" t="n">
-        <v>83.88129937059679</v>
+        <v>83.88129936849904</v>
       </c>
       <c r="HX2" t="n">
-        <v>36.26433849339252</v>
+        <v>36.26433849275123</v>
       </c>
       <c r="HY2" t="n">
-        <v>258.0958630448121</v>
+        <v>258.095863045454</v>
       </c>
       <c r="HZ2" t="n">
-        <v>84173.10359805946</v>
+        <v>84173.10359880676</v>
       </c>
       <c r="IA2" t="n">
-        <v>1.136926240103069</v>
+        <v>1.136926240110333</v>
       </c>
       <c r="IB2" t="n">
-        <v>310165.5201768647</v>
+        <v>310165.5201773233</v>
       </c>
       <c r="IC2" t="n">
-        <v>384201.1969243982</v>
+        <v>384201.1969250411</v>
       </c>
       <c r="ID2" t="n">
-        <v>3788.783891564588</v>
+        <v>3788.78389156453</v>
       </c>
       <c r="IE2" t="n">
-        <v>-593668.2514592459</v>
+        <v>-593668.2514610202</v>
       </c>
       <c r="IF2" t="n">
-        <v>716.4980321127189</v>
+        <v>716.4980321127358</v>
       </c>
       <c r="IG2" t="n">
-        <v>1005.15422723925</v>
+        <v>1005.154227239272</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.402870883364995</v>
+        <v>1.402870883364992</v>
       </c>
       <c r="II2" t="n">
-        <v>0.999318154091609</v>
+        <v>0.9993181540916115</v>
       </c>
       <c r="IJ2" t="n">
-        <v>322.1675625738489</v>
+        <v>322.16756257425</v>
       </c>
       <c r="IK2" t="n">
-        <v>118003.7782494422</v>
+        <v>118003.7782504899</v>
       </c>
       <c r="IL2" t="n">
-        <v>8.474304931882354e-06</v>
+        <v>8.474304931807115e-06</v>
       </c>
       <c r="IM2" t="n">
-        <v>84115.92231951709</v>
+        <v>84115.92232026413</v>
       </c>
       <c r="IN2" t="n">
-        <v>1.188835564569413e-05</v>
+        <v>1.188835564558855e-05</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.00388800629189695</v>
+        <v>0.003888006291887301</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.645301935509781e-05</v>
+        <v>1.645301935513083e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.02319180040355126</v>
+        <v>0.02319180040360157</v>
       </c>
       <c r="IR2" t="n">
-        <v>84173.10359805946</v>
+        <v>84173.10359880676</v>
       </c>
       <c r="IS2" t="n">
-        <v>1.136926240103069</v>
+        <v>1.136926240110333</v>
       </c>
       <c r="IT2" t="n">
-        <v>1.136926240103069</v>
+        <v>1.136926240110333</v>
       </c>
       <c r="IU2" t="n">
-        <v>310165.5201768647</v>
+        <v>310165.5201773233</v>
       </c>
       <c r="IV2" t="n">
-        <v>384201.1969243982</v>
+        <v>384201.1969250411</v>
       </c>
       <c r="IW2" t="n">
-        <v>3788.783891564588</v>
+        <v>3788.78389156453</v>
       </c>
       <c r="IX2" t="n">
-        <v>716.4980321127189</v>
+        <v>716.4980321127358</v>
       </c>
       <c r="IY2" t="n">
-        <v>1005.15422723925</v>
+        <v>1005.154227239272</v>
       </c>
       <c r="IZ2" t="n">
-        <v>322.1675625738489</v>
+        <v>322.16756257425</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.999318154091609</v>
+        <v>0.9993181540916115</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.645301935509781e-05</v>
+        <v>1.645301935513083e-05</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.02319180040355126</v>
+        <v>0.02319180040360157</v>
       </c>
       <c r="JD2" t="n">
         <v>295.5935241439324</v>
       </c>
       <c r="JE2" t="n">
-        <v>135206.950160156</v>
+        <v>135206.950160182</v>
       </c>
       <c r="JF2" t="n">
-        <v>1.594232983779017</v>
+        <v>1.594232983779323</v>
       </c>
       <c r="JG2" t="n">
         <v>336974.3992197612</v>
       </c>
       <c r="JH2" t="n">
-        <v>421784.4310882886</v>
+        <v>421784.4310882887</v>
       </c>
       <c r="JI2" t="n">
-        <v>3788.783891569075</v>
+        <v>3788.783891569019</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-698155.5516403767</v>
+        <v>-698155.5516403607</v>
       </c>
       <c r="JK2" t="n">
-        <v>717.8559613685525</v>
+        <v>717.8559613685526</v>
       </c>
       <c r="JL2" t="n">
         <v>1006.775725221355</v>
@@ -3898,46 +3898,46 @@
         <v>344.802579753626</v>
       </c>
       <c r="JP2" t="n">
-        <v>189536.476659915</v>
+        <v>189536.4766599515</v>
       </c>
       <c r="JQ2" t="n">
-        <v>5.276029277437178e-06</v>
+        <v>5.276029277436163e-06</v>
       </c>
       <c r="JR2" t="n">
-        <v>135144.1897719541</v>
+        <v>135144.1897719801</v>
       </c>
       <c r="JS2" t="n">
-        <v>7.399504201308441e-06</v>
+        <v>7.399504201307019e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.003395614454318619</v>
+        <v>0.00339561445431862</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.832923467030697e-05</v>
+        <v>1.832923467030698e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.0260672556222219</v>
+        <v>0.02606725562222191</v>
       </c>
       <c r="JW2" t="n">
-        <v>135206.950160156</v>
+        <v>135206.950160182</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.594232983779017</v>
+        <v>1.594232983779323</v>
       </c>
       <c r="JY2" t="n">
-        <v>1.594232983779017</v>
+        <v>1.594232983779323</v>
       </c>
       <c r="JZ2" t="n">
         <v>336974.3992197612</v>
       </c>
       <c r="KA2" t="n">
-        <v>421784.4310882886</v>
+        <v>421784.4310882887</v>
       </c>
       <c r="KB2" t="n">
-        <v>3788.783891569075</v>
+        <v>3788.783891569019</v>
       </c>
       <c r="KC2" t="n">
-        <v>717.8559613685525</v>
+        <v>717.8559613685526</v>
       </c>
       <c r="KD2" t="n">
         <v>1006.775725221355</v>
@@ -3949,460 +3949,460 @@
         <v>0.999530569412342</v>
       </c>
       <c r="KG2" t="n">
-        <v>1.832923467030697e-05</v>
+        <v>1.832923467030698e-05</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.0260672556222219</v>
+        <v>0.02606725562222191</v>
       </c>
       <c r="KI2" t="n">
-        <v>268.1325478429469</v>
+        <v>268.132547843293</v>
       </c>
       <c r="KJ2" t="n">
-        <v>96169.14342746856</v>
+        <v>96169.14342792062</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.250276210437101</v>
+        <v>1.250276210441363</v>
       </c>
       <c r="KL2" t="n">
-        <v>317337.6916891159</v>
+        <v>317337.6916893631</v>
       </c>
       <c r="KM2" t="n">
-        <v>394256.0099172517</v>
+        <v>394256.0099175983</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.783891570536</v>
+        <v>3788.78389157048</v>
       </c>
       <c r="KO2" t="n">
-        <v>-621640.2681558715</v>
+        <v>-621640.268156821</v>
       </c>
       <c r="KP2" t="n">
-        <v>716.7853702994472</v>
+        <v>716.785370299458</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1005.511312851204</v>
+        <v>1005.511312851218</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402806690140924</v>
+        <v>1.402806690140922</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9993647230925795</v>
+        <v>0.9993647230925811</v>
       </c>
       <c r="KT2" t="n">
-        <v>328.3798436109124</v>
+        <v>328.3798436111246</v>
       </c>
       <c r="KU2" t="n">
-        <v>134821.4368013272</v>
+        <v>134821.4368019609</v>
       </c>
       <c r="KV2" t="n">
-        <v>7.417218090277437e-06</v>
+        <v>7.417218090242572e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>96108.35031573965</v>
+        <v>96108.35031619157</v>
       </c>
       <c r="KX2" t="n">
-        <v>1.040492315927548e-05</v>
+        <v>1.040492315922655e-05</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003742747758418411</v>
+        <v>0.003742747758413593</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.696534104365247e-05</v>
+        <v>1.696534104367001e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02397353035650528</v>
+        <v>0.02397353035653207</v>
       </c>
       <c r="LB2" t="n">
-        <v>96169.14342746856</v>
+        <v>96169.14342792062</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.250276210437101</v>
+        <v>1.250276210441363</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.250276210437101</v>
+        <v>1.250276210441363</v>
       </c>
       <c r="LE2" t="n">
-        <v>317337.6916891159</v>
+        <v>317337.6916893631</v>
       </c>
       <c r="LF2" t="n">
-        <v>394256.0099172517</v>
+        <v>394256.0099175983</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.783891570536</v>
+        <v>3788.78389157048</v>
       </c>
       <c r="LH2" t="n">
-        <v>716.7853702994472</v>
+        <v>716.785370299458</v>
       </c>
       <c r="LI2" t="n">
-        <v>1005.511312851204</v>
+        <v>1005.511312851218</v>
       </c>
       <c r="LJ2" t="n">
-        <v>328.3798436109124</v>
+        <v>328.3798436111246</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9993647230925795</v>
+        <v>0.9993647230925811</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.696534104365247e-05</v>
+        <v>1.696534104367001e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02397353035650528</v>
+        <v>0.02397353035653207</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.85100137424005</v>
+        <v>0.8510013742328444</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.4401697421816947</v>
+        <v>0.4401697421768543</v>
       </c>
       <c r="LP2" t="n">
-        <v>255366.0092042268</v>
+        <v>255366.0092028556</v>
       </c>
       <c r="LQ2" t="n">
-        <v>2.790805431849018</v>
+        <v>2.790805431862548</v>
       </c>
       <c r="LR2" t="n">
-        <v>380593.4359520315</v>
+        <v>380593.4359523781</v>
       </c>
       <c r="LS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT2" t="n">
-        <v>135.4695893138591</v>
+        <v>135.4695893152213</v>
       </c>
       <c r="LU2" t="n">
-        <v>125.508618948974</v>
+        <v>125.5086189496349</v>
       </c>
       <c r="LV2" t="n">
-        <v>-50.98623538158992</v>
+        <v>-50.98623538358225</v>
       </c>
       <c r="LW2" t="n">
-        <v>-22.10880530560605</v>
+        <v>-22.10880530628152</v>
       </c>
       <c r="LX2" t="n">
-        <v>250.0670575828926</v>
+        <v>250.0670575849475</v>
       </c>
       <c r="LY2" t="n">
-        <v>125.508618948974</v>
+        <v>125.5086189496349</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-216.2894353815899</v>
+        <v>-216.2894353835823</v>
       </c>
       <c r="MA2" t="n">
-        <v>-59.87422706596498</v>
+        <v>-59.87422706606311</v>
       </c>
       <c r="MB2" t="n">
-        <v>236.9057734234127</v>
+        <v>236.905773423246</v>
       </c>
       <c r="MC2" t="n">
-        <v>59999.99999993641</v>
+        <v>59999.99999991286</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.8829486054294832</v>
+        <v>0.8829486054297597</v>
       </c>
       <c r="ME2" t="n">
-        <v>295035.1181619706</v>
+        <v>295035.1181618511</v>
       </c>
       <c r="MF2" t="n">
-        <v>362989.2432729687</v>
+        <v>362989.2432728012</v>
       </c>
       <c r="MG2" t="n">
-        <v>3800.133275763727</v>
+        <v>3800.133275763133</v>
       </c>
       <c r="MH2" t="n">
-        <v>-537284.269533884</v>
+        <v>-537284.2695332773</v>
       </c>
       <c r="MI2" t="n">
-        <v>716.0331786757808</v>
+        <v>716.0331786757787</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1004.487866949672</v>
+        <v>1004.487866949671</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.402851008674422</v>
+        <v>1.402851008674426</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.9992725343294159</v>
+        <v>0.9992725343294139</v>
       </c>
       <c r="MM2" t="n">
-        <v>308.642663166662</v>
+        <v>308.6426631665533</v>
       </c>
       <c r="MN2" t="n">
-        <v>84109.94332212317</v>
+        <v>84109.94332209024</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.188920073540191e-05</v>
+        <v>1.188920073540657e-05</v>
       </c>
       <c r="MP2" t="n">
-        <v>59956.43357850247</v>
+        <v>59956.43357847883</v>
       </c>
       <c r="MQ2" t="n">
-        <v>1.667877724399125e-05</v>
+        <v>1.667877724399783e-05</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.004234486916510352</v>
+        <v>0.004234486916513354</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.534470472109148e-05</v>
+        <v>1.534470472108264e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02150906073070622</v>
+        <v>0.02150906073069287</v>
       </c>
       <c r="MU2" t="n">
-        <v>59999.99999993641</v>
+        <v>59999.99999991286</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.8829486054294832</v>
+        <v>0.8829486054297597</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8829486054294832</v>
+        <v>0.8829486054297597</v>
       </c>
       <c r="MX2" t="n">
-        <v>295035.1181619706</v>
+        <v>295035.1181618511</v>
       </c>
       <c r="MY2" t="n">
-        <v>362989.2432729687</v>
+        <v>362989.2432728012</v>
       </c>
       <c r="MZ2" t="n">
-        <v>3800.133275763727</v>
+        <v>3800.133275763133</v>
       </c>
       <c r="NA2" t="n">
-        <v>716.0331786757808</v>
+        <v>716.0331786757787</v>
       </c>
       <c r="NB2" t="n">
-        <v>1004.487866949672</v>
+        <v>1004.487866949671</v>
       </c>
       <c r="NC2" t="n">
-        <v>308.642663166662</v>
+        <v>308.6426631665533</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.9992725343294159</v>
+        <v>0.9992725343294139</v>
       </c>
       <c r="NE2" t="n">
-        <v>1.534470472109148e-05</v>
+        <v>1.534470472108264e-05</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.02150906073070622</v>
+        <v>0.02150906073069287</v>
       </c>
       <c r="NG2" t="n">
-        <v>246.0690979966508</v>
+        <v>246.0690979966685</v>
       </c>
       <c r="NH2" t="n">
-        <v>68499.67981568056</v>
+        <v>68499.67981583916</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.9704638759002696</v>
+        <v>0.9704638759024479</v>
       </c>
       <c r="NJ2" t="n">
-        <v>301580.7765612092</v>
+        <v>301580.7765612214</v>
       </c>
       <c r="NK2" t="n">
-        <v>372165.2480874013</v>
+        <v>372165.2480874185</v>
       </c>
       <c r="NL2" t="n">
-        <v>3800.133275772298</v>
+        <v>3800.133275771703</v>
       </c>
       <c r="NM2" t="n">
-        <v>-562930.119348946</v>
+        <v>-562930.1193488498</v>
       </c>
       <c r="NN2" t="n">
-        <v>716.205650667487</v>
+        <v>716.2056506674878</v>
       </c>
       <c r="NO2" t="n">
-        <v>1004.720142897374</v>
+        <v>1004.720142897378</v>
       </c>
       <c r="NP2" t="n">
-        <v>1.402837497806668</v>
+        <v>1.402837497806672</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.9992999371498482</v>
+        <v>0.9992999371498469</v>
       </c>
       <c r="NR2" t="n">
-        <v>314.5622301054634</v>
+        <v>314.5622301054748</v>
       </c>
       <c r="NS2" t="n">
-        <v>96026.81495108794</v>
+        <v>96026.81495131046</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.041375787075056e-05</v>
+        <v>1.041375787072643e-05</v>
       </c>
       <c r="NU2" t="n">
-        <v>68451.84499361156</v>
+        <v>68451.84499376996</v>
       </c>
       <c r="NV2" t="n">
-        <v>1.460881003416822e-05</v>
+        <v>1.460881003413441e-05</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.00407710959509089</v>
+        <v>0.004077109595090622</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.582826903955464e-05</v>
+        <v>1.58282690395556e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.02224158540604924</v>
+        <v>0.0222415854060507</v>
       </c>
       <c r="NZ2" t="n">
-        <v>68499.67981568056</v>
+        <v>68499.67981583916</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.9704638759002696</v>
+        <v>0.9704638759024479</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.9704638759002696</v>
+        <v>0.9704638759024479</v>
       </c>
       <c r="OC2" t="n">
-        <v>301580.7765612092</v>
+        <v>301580.7765612214</v>
       </c>
       <c r="OD2" t="n">
-        <v>372165.2480874013</v>
+        <v>372165.2480874185</v>
       </c>
       <c r="OE2" t="n">
-        <v>3800.133275772298</v>
+        <v>3800.133275771703</v>
       </c>
       <c r="OF2" t="n">
-        <v>716.205650667487</v>
+        <v>716.2056506674878</v>
       </c>
       <c r="OG2" t="n">
-        <v>1004.720142897374</v>
+        <v>1004.720142897378</v>
       </c>
       <c r="OH2" t="n">
-        <v>314.5622301054634</v>
+        <v>314.5622301054748</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.9992999371498482</v>
+        <v>0.9992999371498469</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1.582826903955464e-05</v>
+        <v>1.58282690395556e-05</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.02224158540604924</v>
+        <v>0.0222415854060507</v>
       </c>
       <c r="OL2" t="n">
-        <v>268.122005339063</v>
+        <v>268.1220053394098</v>
       </c>
       <c r="OM2" t="n">
-        <v>92438.70528889952</v>
+        <v>92438.70528950791</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.201795435558415</v>
+        <v>1.20179543556477</v>
       </c>
       <c r="OO2" t="n">
-        <v>317338.8386967204</v>
+        <v>317338.8386969678</v>
       </c>
       <c r="OP2" t="n">
-        <v>394256.0099172516</v>
+        <v>394256.0099175986</v>
       </c>
       <c r="OQ2" t="n">
-        <v>3800.133275763727</v>
+        <v>3800.133275763133</v>
       </c>
       <c r="OR2" t="n">
-        <v>-624643.3445362216</v>
+        <v>-624643.344537033</v>
       </c>
       <c r="OS2" t="n">
-        <v>716.7730159694532</v>
+        <v>716.773015969465</v>
       </c>
       <c r="OT2" t="n">
-        <v>1005.433966598968</v>
+        <v>1005.433966598986</v>
       </c>
       <c r="OU2" t="n">
-        <v>1.402722959986285</v>
+        <v>1.402722959986287</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.9993891147805176</v>
+        <v>0.9993891147805181</v>
       </c>
       <c r="OW2" t="n">
-        <v>328.371563279014</v>
+        <v>328.3715632792267</v>
       </c>
       <c r="OX2" t="n">
-        <v>129587.058300715</v>
+        <v>129587.058301568</v>
       </c>
       <c r="OY2" t="n">
-        <v>7.716819975027419e-06</v>
+        <v>7.716819974976621e-06</v>
       </c>
       <c r="OZ2" t="n">
-        <v>92382.50317224578</v>
+        <v>92382.50317285385</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.082456055705175e-05</v>
+        <v>1.08245605569805e-05</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.00374238274111307</v>
+        <v>0.003742382741108264</v>
       </c>
       <c r="PC2" t="n">
-        <v>1.696424110322911e-05</v>
+        <v>1.69642411032467e-05</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.02397139285348982</v>
+        <v>0.02397139285351674</v>
       </c>
       <c r="PE2" t="n">
-        <v>92438.70528889952</v>
+        <v>92438.70528950791</v>
       </c>
       <c r="PF2" t="n">
-        <v>1.201795435558415</v>
+        <v>1.20179543556477</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.201795435558415</v>
+        <v>1.20179543556477</v>
       </c>
       <c r="PH2" t="n">
-        <v>317338.8386967204</v>
+        <v>317338.8386969678</v>
       </c>
       <c r="PI2" t="n">
-        <v>394256.0099172516</v>
+        <v>394256.0099175986</v>
       </c>
       <c r="PJ2" t="n">
-        <v>3800.133275763727</v>
+        <v>3800.133275763133</v>
       </c>
       <c r="PK2" t="n">
-        <v>716.7730159694532</v>
+        <v>716.773015969465</v>
       </c>
       <c r="PL2" t="n">
-        <v>1005.433966598968</v>
+        <v>1005.433966598986</v>
       </c>
       <c r="PM2" t="n">
-        <v>328.371563279014</v>
+        <v>328.3715632792267</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.9993891147805176</v>
+        <v>0.9993891147805181</v>
       </c>
       <c r="PO2" t="n">
-        <v>1.696424110322911e-05</v>
+        <v>1.69642411032467e-05</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.02397139285348982</v>
+        <v>0.02397139285351674</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.4389204911723681</v>
+        <v>0.4389204911769363</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.810215460873795</v>
+        <v>0.8102154608807386</v>
       </c>
       <c r="PS2" t="n">
-        <v>374979.7236143569</v>
+        <v>374979.7236177719</v>
       </c>
       <c r="PT2" t="n">
-        <v>2.790805431816324</v>
+        <v>2.790805431831895</v>
       </c>
       <c r="PU2" t="n">
-        <v>380593.4359520315</v>
+        <v>380593.4359523781</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02607389603062386</v>
+        <v>0.0260738960300522</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.002221780598449399</v>
+        <v>0.002221780598053799</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.01178846742602582</v>
+        <v>0.01178846742606312</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.03262518113052377</v>
+        <v>0.03262518113021574</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.04229027499595087</v>
+        <v>0.04229027499554447</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.1149996001815737</v>
+        <v>0.1149996001799293</v>
       </c>
       <c r="QB2" t="n">
-        <v>-2.14629702899316e-12</v>
+        <v>-7.561479220541401e-12</v>
       </c>
       <c r="QC2" t="n">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.52961504349591</v>
+        <v>82.52961504351579</v>
       </c>
       <c r="D3" t="n">
-        <v>82.52961504349591</v>
+        <v>82.52961504351579</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82.52961504349591</v>
+        <v>82.52961504351579</v>
       </c>
       <c r="H3" t="n">
-        <v>82.52961504349591</v>
+        <v>82.52961504351579</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4440,97 +4440,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.2043807642809</v>
+        <v>292.2043807644795</v>
       </c>
       <c r="L3" t="n">
-        <v>132537.5531720504</v>
+        <v>132537.5531723653</v>
       </c>
       <c r="M3" t="n">
-        <v>1.580936880351509</v>
+        <v>1.580936880354189</v>
       </c>
       <c r="N3" t="n">
-        <v>334544.0459658935</v>
+        <v>334544.0459660356</v>
       </c>
       <c r="O3" t="n">
-        <v>418378.8624087749</v>
+        <v>418378.862408974</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687006.1586636899</v>
+        <v>-687006.1586642422</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7062138288326</v>
+        <v>717.7062138288414</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.639892666676</v>
+        <v>1006.639892666687</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402579319045372</v>
+        <v>1.402579319045369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994969313065999</v>
+        <v>0.9994969313066012</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8212838340646</v>
+        <v>342.8212838341813</v>
       </c>
       <c r="W3" t="n">
-        <v>185801.8717919578</v>
+        <v>185801.8717923991</v>
       </c>
       <c r="X3" t="n">
-        <v>5.382077103720997e-06</v>
+        <v>5.382077103708211e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132471.5609798231</v>
+        <v>132471.560980138</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.548790039186681e-06</v>
+        <v>7.548790039168737e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003435197102771642</v>
+        <v>0.003435197102769311</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816416388198892e-05</v>
+        <v>1.816416388199864e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02581314531333133</v>
+        <v>0.02581314531334631</v>
       </c>
       <c r="AD3" t="n">
-        <v>132537.5531720504</v>
+        <v>132537.5531723653</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.580936880351509</v>
+        <v>1.580936880354189</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580936880351509</v>
+        <v>1.580936880354189</v>
       </c>
       <c r="AG3" t="n">
-        <v>334544.0459658935</v>
+        <v>334544.0459660356</v>
       </c>
       <c r="AH3" t="n">
-        <v>418378.8624087749</v>
+        <v>418378.862408974</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7062138288326</v>
+        <v>717.7062138288414</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.639892666676</v>
+        <v>1006.639892666687</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8212838340646</v>
+        <v>342.8212838341813</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994969313065999</v>
+        <v>0.9994969313066012</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816416388198892e-05</v>
+        <v>1.816416388199864e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02581314531333133</v>
+        <v>0.02581314531334631</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4719,16 +4719,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2407365555618263</v>
+        <v>0.2407365555618023</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2407365555618263</v>
+        <v>0.2407365555618023</v>
       </c>
       <c r="DB3" t="n">
-        <v>187908.6092731058</v>
+        <v>187908.609273369</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.801075364070334</v>
+        <v>2.801075364075757</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4737,145 +4737,145 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>278.00454248369</v>
+        <v>278.0045424826552</v>
       </c>
       <c r="DG3" t="n">
-        <v>115.9958573895643</v>
+        <v>115.9958573891197</v>
       </c>
       <c r="DH3" t="n">
-        <v>252.6489396574339</v>
+        <v>252.6489396564993</v>
       </c>
       <c r="DI3" t="n">
-        <v>65.33925894824628</v>
+        <v>65.33925894824918</v>
       </c>
       <c r="DJ3" t="n">
-        <v>278.00454248369</v>
+        <v>278.0045424826552</v>
       </c>
       <c r="DK3" t="n">
-        <v>115.9958573895643</v>
+        <v>115.9958573891197</v>
       </c>
       <c r="DL3" t="n">
-        <v>252.6489396574339</v>
+        <v>252.6489396564993</v>
       </c>
       <c r="DM3" t="n">
-        <v>65.33925894824628</v>
+        <v>65.33925894824918</v>
       </c>
       <c r="DN3" t="n">
-        <v>257.0374671001149</v>
+        <v>257.0374671004022</v>
       </c>
       <c r="DO3" t="n">
-        <v>82934.7426998467</v>
+        <v>82934.74270017914</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.124816998469303</v>
+        <v>1.124816998472552</v>
       </c>
       <c r="DQ3" t="n">
-        <v>309409.4031782786</v>
+        <v>309409.4031784839</v>
       </c>
       <c r="DR3" t="n">
-        <v>383141.1682678066</v>
+        <v>383141.1682680945</v>
       </c>
       <c r="DS3" t="n">
-        <v>3788.919886547651</v>
+        <v>3788.919886547621</v>
       </c>
       <c r="DT3" t="n">
-        <v>-590753.2024156563</v>
+        <v>-590753.2024164496</v>
       </c>
       <c r="DU3" t="n">
-        <v>716.4704925479138</v>
+        <v>716.470492547921</v>
       </c>
       <c r="DV3" t="n">
-        <v>1005.118615028115</v>
+        <v>1005.118615028124</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.402875101602175</v>
+        <v>1.402875101602174</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.9993139907805236</v>
+        <v>0.9993139907805249</v>
       </c>
       <c r="DY3" t="n">
-        <v>321.5054477188231</v>
+        <v>321.5054477190031</v>
       </c>
       <c r="DZ3" t="n">
-        <v>116267.5559359862</v>
+        <v>116267.5559364524</v>
       </c>
       <c r="EA3" t="n">
-        <v>8.600851647303681e-06</v>
+        <v>8.600851647269199e-06</v>
       </c>
       <c r="EB3" t="n">
-        <v>82878.0522251775</v>
+        <v>82878.05222550982</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.206592062857638e-05</v>
+        <v>1.2065920628528e-05</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.003903977621429699</v>
+        <v>0.003903977621425344</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.639853367014475e-05</v>
+        <v>1.639853367015956e-05</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.02310880889607043</v>
+        <v>0.02310880889609298</v>
       </c>
       <c r="EG3" t="n">
-        <v>82934.7426998467</v>
+        <v>82934.74270017914</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.124816998469303</v>
+        <v>1.124816998472552</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.124816998469303</v>
+        <v>1.124816998472552</v>
       </c>
       <c r="EJ3" t="n">
-        <v>309409.4031782786</v>
+        <v>309409.4031784839</v>
       </c>
       <c r="EK3" t="n">
-        <v>383141.1682678066</v>
+        <v>383141.1682680945</v>
       </c>
       <c r="EL3" t="n">
-        <v>3788.919886547651</v>
+        <v>3788.919886547621</v>
       </c>
       <c r="EM3" t="n">
-        <v>716.4704925479138</v>
+        <v>716.470492547921</v>
       </c>
       <c r="EN3" t="n">
-        <v>1005.118615028115</v>
+        <v>1005.118615028124</v>
       </c>
       <c r="EO3" t="n">
-        <v>321.5054477188231</v>
+        <v>321.5054477190031</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.9993139907805236</v>
+        <v>0.9993139907805249</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.639853367014475e-05</v>
+        <v>1.639853367015956e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.02310880889607043</v>
+        <v>0.02310880889609298</v>
       </c>
       <c r="ES3" t="n">
-        <v>295.5933755788783</v>
+        <v>295.5933755788784</v>
       </c>
       <c r="ET3" t="n">
-        <v>135142.878407368</v>
+        <v>135142.8784073823</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.593477963214826</v>
+        <v>1.593477963214994</v>
       </c>
       <c r="EV3" t="n">
-        <v>336974.4233400555</v>
+        <v>336974.4233400556</v>
       </c>
       <c r="EW3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="EX3" t="n">
-        <v>3788.919886547352</v>
+        <v>3788.919886547321</v>
       </c>
       <c r="EY3" t="n">
-        <v>-698195.1879738825</v>
+        <v>-698195.1879738737</v>
       </c>
       <c r="EZ3" t="n">
-        <v>717.8557944799272</v>
+        <v>717.8557944799273</v>
       </c>
       <c r="FA3" t="n">
         <v>1006.774673229023</v>
@@ -4884,91 +4884,91 @@
         <v>1.402474815932094</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9995307875089356</v>
+        <v>0.9995307875089355</v>
       </c>
       <c r="FD3" t="n">
-        <v>344.8024274224543</v>
+        <v>344.8024274224544</v>
       </c>
       <c r="FE3" t="n">
-        <v>189446.5457645013</v>
+        <v>189446.5457645213</v>
       </c>
       <c r="FF3" t="n">
-        <v>5.278533825805872e-06</v>
+        <v>5.278533825805314e-06</v>
       </c>
       <c r="FG3" t="n">
-        <v>135080.1765653052</v>
+        <v>135080.1765653195</v>
       </c>
       <c r="FH3" t="n">
-        <v>7.403010755738423e-06</v>
+        <v>7.403010755737641e-06</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.003395610227215515</v>
+        <v>0.003395610227215516</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.832921822184877e-05</v>
+        <v>1.832921822184878e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.02606722400100809</v>
+        <v>0.02606722400100811</v>
       </c>
       <c r="FL3" t="n">
-        <v>135142.878407368</v>
+        <v>135142.8784073823</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.593477963214826</v>
+        <v>1.593477963214994</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.593477963214826</v>
+        <v>1.593477963214994</v>
       </c>
       <c r="FO3" t="n">
-        <v>336974.4233400555</v>
+        <v>336974.4233400556</v>
       </c>
       <c r="FP3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3788.919886547352</v>
+        <v>3788.919886547321</v>
       </c>
       <c r="FR3" t="n">
-        <v>717.8557944799272</v>
+        <v>717.8557944799273</v>
       </c>
       <c r="FS3" t="n">
         <v>1006.774673229023</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8024274224543</v>
+        <v>344.8024274224544</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.9995307875089356</v>
+        <v>0.9995307875089355</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.832921822184877e-05</v>
+        <v>1.832921822184878e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02606722400100809</v>
+        <v>0.02606722400100811</v>
       </c>
       <c r="FX3" t="n">
-        <v>295.5933755788783</v>
+        <v>295.5933755788784</v>
       </c>
       <c r="FY3" t="n">
-        <v>135142.878407368</v>
+        <v>135142.8784073823</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.593477963214826</v>
+        <v>1.593477963214994</v>
       </c>
       <c r="GA3" t="n">
-        <v>336974.4233400555</v>
+        <v>336974.4233400556</v>
       </c>
       <c r="GB3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="GC3" t="n">
-        <v>3788.919886547352</v>
+        <v>3788.919886547321</v>
       </c>
       <c r="GD3" t="n">
-        <v>-698195.1879738825</v>
+        <v>-698195.1879738737</v>
       </c>
       <c r="GE3" t="n">
-        <v>717.8557944799272</v>
+        <v>717.8557944799273</v>
       </c>
       <c r="GF3" t="n">
         <v>1006.774673229023</v>
@@ -4977,103 +4977,103 @@
         <v>1.402474815932094</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.9995307875089356</v>
+        <v>0.9995307875089355</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8024274224543</v>
+        <v>344.8024274224544</v>
       </c>
       <c r="GJ3" t="n">
-        <v>189446.5457645013</v>
+        <v>189446.5457645213</v>
       </c>
       <c r="GK3" t="n">
-        <v>5.278533825805872e-06</v>
+        <v>5.278533825805314e-06</v>
       </c>
       <c r="GL3" t="n">
-        <v>135080.1765653052</v>
+        <v>135080.1765653195</v>
       </c>
       <c r="GM3" t="n">
-        <v>7.403010755738423e-06</v>
+        <v>7.403010755737641e-06</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.003395610227215515</v>
+        <v>0.003395610227215516</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.832921822184877e-05</v>
+        <v>1.832921822184878e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.02606722400100809</v>
+        <v>0.02606722400100811</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135142.878407368</v>
+        <v>135142.8784073823</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.593477963214826</v>
+        <v>1.593477963214994</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.593477963214826</v>
+        <v>1.593477963214994</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.4233400555</v>
+        <v>336974.4233400556</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.919886547352</v>
+        <v>3788.919886547321</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8557944799272</v>
+        <v>717.8557944799273</v>
       </c>
       <c r="GX3" t="n">
         <v>1006.774673229023</v>
       </c>
       <c r="GY3" t="n">
-        <v>344.8024274224543</v>
+        <v>344.8024274224544</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995307875089356</v>
+        <v>0.9995307875089355</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.832921822184877e-05</v>
+        <v>1.832921822184878e-05</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.02606722400100809</v>
+        <v>0.02606722400100811</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.8646962110788949</v>
+        <v>0.8646962110751919</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.8646962110788949</v>
+        <v>0.8646962110751919</v>
       </c>
       <c r="HE3" t="n">
-        <v>498845.9915455661</v>
+        <v>498845.9915446999</v>
       </c>
       <c r="HF3" t="n">
-        <v>2.801075364077366</v>
+        <v>2.801075364074723</v>
       </c>
       <c r="HG3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.01561192565410074</v>
+        <v>0.01561192565410023</v>
       </c>
       <c r="HI3" t="n">
-        <v>-1.824277019598063e-07</v>
+        <v>-1.824277019609385e-07</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01377981236503228</v>
+        <v>0.0137798123650324</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.02533404515303102</v>
+        <v>0.0253340451530291</v>
       </c>
       <c r="HL3" t="n">
         <v>0</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.05472560074446208</v>
+        <v>0.05472560074445977</v>
       </c>
       <c r="HN3" t="n">
-        <v>-1.614403055683056e-13</v>
+        <v>-9.93580218100476e-14</v>
       </c>
       <c r="HO3" t="n">
         <v>0</v>
@@ -5082,142 +5082,142 @@
         <v>165.3032</v>
       </c>
       <c r="HQ3" t="n">
-        <v>278.00454248369</v>
+        <v>278.0045424826552</v>
       </c>
       <c r="HR3" t="n">
-        <v>115.9958573895643</v>
+        <v>115.9958573891197</v>
       </c>
       <c r="HS3" t="n">
-        <v>252.6489396574339</v>
+        <v>252.6489396564993</v>
       </c>
       <c r="HT3" t="n">
-        <v>65.33925894824628</v>
+        <v>65.33925894824918</v>
       </c>
       <c r="HU3" t="n">
-        <v>145.2043978942937</v>
+        <v>145.2043978933763</v>
       </c>
       <c r="HV3" t="n">
-        <v>115.9958573895643</v>
+        <v>115.9958573891197</v>
       </c>
       <c r="HW3" t="n">
-        <v>87.34573965743391</v>
+        <v>87.34573965649929</v>
       </c>
       <c r="HX3" t="n">
-        <v>36.98001800774558</v>
+        <v>36.98001800755651</v>
       </c>
       <c r="HY3" t="n">
-        <v>257.0374671000101</v>
+        <v>257.0374671004975</v>
       </c>
       <c r="HZ3" t="n">
-        <v>82934.7426981426</v>
+        <v>82934.74269870049</v>
       </c>
       <c r="IA3" t="n">
-        <v>1.124816998446635</v>
+        <v>1.124816998452066</v>
       </c>
       <c r="IB3" t="n">
-        <v>309409.4031782077</v>
+        <v>309409.4031785561</v>
       </c>
       <c r="IC3" t="n">
-        <v>383141.1682677066</v>
+        <v>383141.168268195</v>
       </c>
       <c r="ID3" t="n">
-        <v>3788.919886553156</v>
+        <v>3788.919886553126</v>
       </c>
       <c r="IE3" t="n">
-        <v>-590753.2024167741</v>
+        <v>-590753.2024181251</v>
       </c>
       <c r="IF3" t="n">
-        <v>716.4704925479053</v>
+        <v>716.470492547918</v>
       </c>
       <c r="IG3" t="n">
-        <v>1005.118615028075</v>
+        <v>1005.118615028091</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.402875101602136</v>
+        <v>1.402875101602133</v>
       </c>
       <c r="II3" t="n">
-        <v>0.9993139907805363</v>
+        <v>0.9993139907805383</v>
       </c>
       <c r="IJ3" t="n">
-        <v>321.5054477187571</v>
+        <v>321.5054477190624</v>
       </c>
       <c r="IK3" t="n">
-        <v>116267.5559335954</v>
+        <v>116267.5559343777</v>
       </c>
       <c r="IL3" t="n">
-        <v>8.60085164748054e-06</v>
+        <v>8.600851647422673e-06</v>
       </c>
       <c r="IM3" t="n">
-        <v>82878.05222347559</v>
+        <v>82878.05222403329</v>
       </c>
       <c r="IN3" t="n">
-        <v>1.206592062882416e-05</v>
+        <v>1.206592062874296e-05</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.00390397762143103</v>
+        <v>0.003903977621423642</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.639853367013911e-05</v>
+        <v>1.639853367016422e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.02310880889606162</v>
+        <v>0.02310880889609986</v>
       </c>
       <c r="IR3" t="n">
-        <v>82934.7426981426</v>
+        <v>82934.74269870049</v>
       </c>
       <c r="IS3" t="n">
-        <v>1.124816998446635</v>
+        <v>1.124816998452066</v>
       </c>
       <c r="IT3" t="n">
-        <v>1.124816998446635</v>
+        <v>1.124816998452066</v>
       </c>
       <c r="IU3" t="n">
-        <v>309409.4031782077</v>
+        <v>309409.4031785561</v>
       </c>
       <c r="IV3" t="n">
-        <v>383141.1682677066</v>
+        <v>383141.168268195</v>
       </c>
       <c r="IW3" t="n">
-        <v>3788.919886553156</v>
+        <v>3788.919886553126</v>
       </c>
       <c r="IX3" t="n">
-        <v>716.4704925479053</v>
+        <v>716.470492547918</v>
       </c>
       <c r="IY3" t="n">
-        <v>1005.118615028075</v>
+        <v>1005.118615028091</v>
       </c>
       <c r="IZ3" t="n">
-        <v>321.5054477187571</v>
+        <v>321.5054477190624</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.9993139907805363</v>
+        <v>0.9993139907805383</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.639853367013911e-05</v>
+        <v>1.639853367016422e-05</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.02310880889606162</v>
+        <v>0.02310880889609986</v>
       </c>
       <c r="JD3" t="n">
-        <v>295.5933755789724</v>
+        <v>295.5933755789725</v>
       </c>
       <c r="JE3" t="n">
-        <v>135142.8784049349</v>
+        <v>135142.8784049493</v>
       </c>
       <c r="JF3" t="n">
-        <v>1.593477963185614</v>
+        <v>1.593477963185783</v>
       </c>
       <c r="JG3" t="n">
-        <v>336974.423340128</v>
+        <v>336974.4233401282</v>
       </c>
       <c r="JH3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886904</v>
       </c>
       <c r="JI3" t="n">
-        <v>3788.919886552857</v>
+        <v>3788.919886552826</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-698195.1879757663</v>
+        <v>-698195.1879757574</v>
       </c>
       <c r="JK3" t="n">
         <v>717.8557944799251</v>
@@ -5229,22 +5229,22 @@
         <v>1.402474815932047</v>
       </c>
       <c r="JN3" t="n">
-        <v>0.9995307875089452</v>
+        <v>0.9995307875089451</v>
       </c>
       <c r="JO3" t="n">
-        <v>344.8024274225066</v>
+        <v>344.8024274225067</v>
       </c>
       <c r="JP3" t="n">
-        <v>189446.5457610858</v>
+        <v>189446.5457611059</v>
       </c>
       <c r="JQ3" t="n">
-        <v>5.278533825901037e-06</v>
+        <v>5.278533825900475e-06</v>
       </c>
       <c r="JR3" t="n">
-        <v>135080.1765628745</v>
+        <v>135080.1765628889</v>
       </c>
       <c r="JS3" t="n">
-        <v>7.403010755871638e-06</v>
+        <v>7.403010755870851e-06</v>
       </c>
       <c r="JT3" t="n">
         <v>0.003395610227214197</v>
@@ -5253,25 +5253,25 @@
         <v>1.832921822185299e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.02606722400101433</v>
+        <v>0.02606722400101434</v>
       </c>
       <c r="JW3" t="n">
-        <v>135142.8784049349</v>
+        <v>135142.8784049493</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.593477963185614</v>
+        <v>1.593477963185783</v>
       </c>
       <c r="JY3" t="n">
-        <v>1.593477963185614</v>
+        <v>1.593477963185783</v>
       </c>
       <c r="JZ3" t="n">
-        <v>336974.423340128</v>
+        <v>336974.4233401282</v>
       </c>
       <c r="KA3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886904</v>
       </c>
       <c r="KB3" t="n">
-        <v>3788.919886552857</v>
+        <v>3788.919886552826</v>
       </c>
       <c r="KC3" t="n">
         <v>717.8557944799251</v>
@@ -5280,466 +5280,466 @@
         <v>1006.774673228986</v>
       </c>
       <c r="KE3" t="n">
-        <v>344.8024274225066</v>
+        <v>344.8024274225067</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.9995307875089452</v>
+        <v>0.9995307875089451</v>
       </c>
       <c r="KG3" t="n">
         <v>1.832921822185299e-05</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.02606722400101433</v>
+        <v>0.02606722400101434</v>
       </c>
       <c r="KI3" t="n">
-        <v>267.560846997908</v>
+        <v>267.5608469981621</v>
       </c>
       <c r="KJ3" t="n">
-        <v>95409.78892446552</v>
+        <v>95409.78892479197</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.243057550907194</v>
+        <v>1.243057550910265</v>
       </c>
       <c r="KL3" t="n">
-        <v>316929.2064532333</v>
+        <v>316929.2064534149</v>
       </c>
       <c r="KM3" t="n">
-        <v>393683.3268516289</v>
+        <v>393683.3268518836</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.919886554355</v>
+        <v>3788.919886554326</v>
       </c>
       <c r="KO3" t="n">
-        <v>-620083.2872020717</v>
+        <v>-620083.287202772</v>
       </c>
       <c r="KP3" t="n">
-        <v>716.7674741389384</v>
+        <v>716.7674741389465</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1005.488635078805</v>
+        <v>1005.488635078815</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.40281007628968</v>
+        <v>1.402810076289678</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9993621730097558</v>
+        <v>0.999362173009757</v>
       </c>
       <c r="KT3" t="n">
-        <v>328.0291303254045</v>
+        <v>328.0291303255604</v>
       </c>
       <c r="KU3" t="n">
-        <v>133756.8588117743</v>
+        <v>133756.8588122319</v>
       </c>
       <c r="KV3" t="n">
-        <v>7.476252125561823e-06</v>
+        <v>7.476252125536246e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>95349.22871779655</v>
+        <v>95349.22871812287</v>
       </c>
       <c r="KX3" t="n">
-        <v>1.048776181462026e-05</v>
+        <v>1.048776181458437e-05</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003750723525147618</v>
+        <v>0.003750723525144064</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.693635799608848e-05</v>
+        <v>1.693635799610137e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.0239292316703787</v>
+        <v>0.02392923167039839</v>
       </c>
       <c r="LB3" t="n">
-        <v>95409.78892446552</v>
+        <v>95409.78892479197</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.243057550907194</v>
+        <v>1.243057550910265</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.243057550907194</v>
+        <v>1.243057550910265</v>
       </c>
       <c r="LE3" t="n">
-        <v>316929.2064532333</v>
+        <v>316929.2064534149</v>
       </c>
       <c r="LF3" t="n">
-        <v>393683.3268516289</v>
+        <v>393683.3268518836</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.919886554355</v>
+        <v>3788.919886554326</v>
       </c>
       <c r="LH3" t="n">
-        <v>716.7674741389384</v>
+        <v>716.7674741389465</v>
       </c>
       <c r="LI3" t="n">
-        <v>1005.488635078805</v>
+        <v>1005.488635078815</v>
       </c>
       <c r="LJ3" t="n">
-        <v>328.0291303254045</v>
+        <v>328.0291303255604</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9993621730097558</v>
+        <v>0.999362173009757</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.693635799608848e-05</v>
+        <v>1.693635799610137e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.0239292316703787</v>
+        <v>0.02392923167039839</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.8646962110790725</v>
+        <v>0.8646962110750324</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.4516389968648803</v>
+        <v>0.4516389968615981</v>
       </c>
       <c r="LP3" t="n">
-        <v>259555.9784878255</v>
+        <v>259555.9784870416</v>
       </c>
       <c r="LQ3" t="n">
-        <v>2.801075364020917</v>
+        <v>2.801075364023707</v>
       </c>
       <c r="LR3" t="n">
-        <v>380020.7528866091</v>
+        <v>380020.7528867636</v>
       </c>
       <c r="LS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT3" t="n">
-        <v>142.2541798754813</v>
+        <v>142.2541798754744</v>
       </c>
       <c r="LU3" t="n">
-        <v>129.9830867725311</v>
+        <v>129.9830867725786</v>
       </c>
       <c r="LV3" t="n">
-        <v>-57.79834638750873</v>
+        <v>-57.79834638738487</v>
       </c>
       <c r="LW3" t="n">
-        <v>-23.97282605613517</v>
+        <v>-23.9728260560818</v>
       </c>
       <c r="LX3" t="n">
-        <v>258.2051565081787</v>
+        <v>258.2051565080956</v>
       </c>
       <c r="LY3" t="n">
-        <v>129.9830867725311</v>
+        <v>129.9830867725786</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-223.1015463875087</v>
+        <v>-223.1015463873849</v>
       </c>
       <c r="MA3" t="n">
-        <v>-59.77413117822886</v>
+        <v>-59.77413117820592</v>
       </c>
       <c r="MB3" t="n">
-        <v>234.2675760751493</v>
+        <v>234.267576075325</v>
       </c>
       <c r="MC3" t="n">
-        <v>57500.00000179376</v>
+        <v>57500.0000000181</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.8556917874531172</v>
+        <v>0.8556917874260295</v>
       </c>
       <c r="ME3" t="n">
-        <v>293151.2831513483</v>
+        <v>293151.2831514793</v>
       </c>
       <c r="MF3" t="n">
-        <v>360348.3754279224</v>
+        <v>360348.3754281055</v>
       </c>
       <c r="MG3" t="n">
-        <v>3801.131194288181</v>
+        <v>3801.13119429782</v>
       </c>
       <c r="MH3" t="n">
-        <v>-530133.4158016073</v>
+        <v>-530133.4158043501</v>
       </c>
       <c r="MI3" t="n">
-        <v>715.9885931999618</v>
+        <v>715.9885931999555</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1004.421377282732</v>
+        <v>1004.42137728268</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.40284550176097</v>
+        <v>1.402845501760911</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.9992681996164423</v>
+        <v>0.9992681996164673</v>
       </c>
       <c r="MM3" t="n">
-        <v>306.9173694662049</v>
+        <v>306.9173694663211</v>
       </c>
       <c r="MN3" t="n">
-        <v>80604.68746890058</v>
+        <v>80604.68746640999</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.240622637964853e-05</v>
+        <v>1.240622638003187e-05</v>
       </c>
       <c r="MP3" t="n">
-        <v>57457.99331980517</v>
+        <v>57457.99331803226</v>
       </c>
       <c r="MQ3" t="n">
-        <v>1.740401887051824e-05</v>
+        <v>1.740401887105525e-05</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.004282029684714687</v>
+        <v>0.004282029684711031</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.520413469667248e-05</v>
+        <v>1.520413469668154e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.0212965131316081</v>
+        <v>0.02129651313162147</v>
       </c>
       <c r="MU3" t="n">
-        <v>57500.00000179376</v>
+        <v>57500.0000000181</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.8556917874531172</v>
+        <v>0.8556917874260295</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8556917874531172</v>
+        <v>0.8556917874260295</v>
       </c>
       <c r="MX3" t="n">
-        <v>293151.2831513483</v>
+        <v>293151.2831514793</v>
       </c>
       <c r="MY3" t="n">
-        <v>360348.3754279224</v>
+        <v>360348.3754281055</v>
       </c>
       <c r="MZ3" t="n">
-        <v>3801.131194288181</v>
+        <v>3801.13119429782</v>
       </c>
       <c r="NA3" t="n">
-        <v>715.9885931999618</v>
+        <v>715.9885931999555</v>
       </c>
       <c r="NB3" t="n">
-        <v>1004.421377282732</v>
+        <v>1004.42137728268</v>
       </c>
       <c r="NC3" t="n">
-        <v>306.9173694662049</v>
+        <v>306.9173694663211</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.9992681996164423</v>
+        <v>0.9992681996164673</v>
       </c>
       <c r="NE3" t="n">
-        <v>1.520413469667248e-05</v>
+        <v>1.520413469668154e-05</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.0212965131316081</v>
+        <v>0.02129651313162147</v>
       </c>
       <c r="NG3" t="n">
-        <v>244.3720243345504</v>
+        <v>244.3720243349253</v>
       </c>
       <c r="NH3" t="n">
-        <v>66632.99544910071</v>
+        <v>66632.99544947936</v>
       </c>
       <c r="NI3" t="n">
-        <v>0.9505765335529894</v>
+        <v>0.9505765335569319</v>
       </c>
       <c r="NJ3" t="n">
-        <v>300369.0466270844</v>
+        <v>300369.0466273525</v>
       </c>
       <c r="NK3" t="n">
-        <v>370466.5012739451</v>
+        <v>370466.5012743207</v>
       </c>
       <c r="NL3" t="n">
-        <v>3801.131194296857</v>
+        <v>3801.131194296764</v>
       </c>
       <c r="NM3" t="n">
-        <v>-558423.623437585</v>
+        <v>-558423.6234386117</v>
       </c>
       <c r="NN3" t="n">
-        <v>716.1701763799331</v>
+        <v>716.1701763799407</v>
       </c>
       <c r="NO3" t="n">
-        <v>1004.668498245146</v>
+        <v>1004.668498245157</v>
       </c>
       <c r="NP3" t="n">
         <v>1.402834872744216</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.999296880735585</v>
+        <v>0.9992968807355859</v>
       </c>
       <c r="NR3" t="n">
-        <v>313.4743613854945</v>
+        <v>313.4743613857352</v>
       </c>
       <c r="NS3" t="n">
-        <v>93409.5202308947</v>
+        <v>93409.52023142559</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.070554690280119e-05</v>
+        <v>1.070554690274035e-05</v>
       </c>
       <c r="NU3" t="n">
-        <v>66586.25476579978</v>
+        <v>66586.25476617823</v>
       </c>
       <c r="NV3" t="n">
-        <v>1.501811452704835e-05</v>
+        <v>1.501811452696299e-05</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.004105321302569426</v>
+        <v>0.004105321302563143</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.573920277609173e-05</v>
+        <v>1.573920277611143e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.02210645759380608</v>
+        <v>0.02210645759383597</v>
       </c>
       <c r="NZ3" t="n">
-        <v>66632.99544910071</v>
+        <v>66632.99544947936</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.9505765335529894</v>
+        <v>0.9505765335569319</v>
       </c>
       <c r="OB3" t="n">
-        <v>0.9505765335529894</v>
+        <v>0.9505765335569319</v>
       </c>
       <c r="OC3" t="n">
-        <v>300369.0466270844</v>
+        <v>300369.0466273525</v>
       </c>
       <c r="OD3" t="n">
-        <v>370466.5012739451</v>
+        <v>370466.5012743207</v>
       </c>
       <c r="OE3" t="n">
-        <v>3801.131194296857</v>
+        <v>3801.131194296764</v>
       </c>
       <c r="OF3" t="n">
-        <v>716.1701763799331</v>
+        <v>716.1701763799407</v>
       </c>
       <c r="OG3" t="n">
-        <v>1004.668498245146</v>
+        <v>1004.668498245157</v>
       </c>
       <c r="OH3" t="n">
-        <v>313.4743613854945</v>
+        <v>313.4743613857352</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.999296880735585</v>
+        <v>0.9992968807355859</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1.573920277609173e-05</v>
+        <v>1.573920277611143e-05</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.02210645759380608</v>
+        <v>0.02210645759383597</v>
       </c>
       <c r="OL3" t="n">
-        <v>267.5495628177021</v>
+        <v>267.5495628178502</v>
       </c>
       <c r="OM3" t="n">
-        <v>91433.66777759454</v>
+        <v>91433.66777780077</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.19127306833044</v>
+        <v>1.191273068332467</v>
       </c>
       <c r="OO3" t="n">
-        <v>316930.4225779688</v>
+        <v>316930.4225780744</v>
       </c>
       <c r="OP3" t="n">
-        <v>393683.3268518295</v>
+        <v>393683.3268519776</v>
       </c>
       <c r="OQ3" t="n">
-        <v>3801.13119428818</v>
+        <v>3801.131194288087</v>
       </c>
       <c r="OR3" t="n">
-        <v>-623307.6623927029</v>
+        <v>-623307.662393093</v>
       </c>
       <c r="OS3" t="n">
-        <v>716.7542328845626</v>
+        <v>716.7542328845673</v>
       </c>
       <c r="OT3" t="n">
-        <v>1005.405768332098</v>
+        <v>1005.405768332105</v>
       </c>
       <c r="OU3" t="n">
-        <v>1.402720377786768</v>
+        <v>1.402720377786767</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.9993884871635161</v>
+        <v>0.9993884871635166</v>
       </c>
       <c r="OW3" t="n">
-        <v>328.0203213055703</v>
+        <v>328.0203213056613</v>
       </c>
       <c r="OX3" t="n">
-        <v>128177.8028701745</v>
+        <v>128177.8028704637</v>
       </c>
       <c r="OY3" t="n">
-        <v>7.801662827789727e-06</v>
+        <v>7.801662827772129e-06</v>
       </c>
       <c r="OZ3" t="n">
-        <v>91378.01439258717</v>
+        <v>91378.01439279329</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.094355142916218e-05</v>
+        <v>1.09435514291375e-05</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.003750331145281725</v>
+        <v>0.003750331145279656</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.693518207719816e-05</v>
+        <v>1.693518207720568e-05</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.02392694597242629</v>
+        <v>0.02392694597243779</v>
       </c>
       <c r="PE3" t="n">
-        <v>91433.66777759454</v>
+        <v>91433.66777780077</v>
       </c>
       <c r="PF3" t="n">
-        <v>1.19127306833044</v>
+        <v>1.191273068332467</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.19127306833044</v>
+        <v>1.191273068332467</v>
       </c>
       <c r="PH3" t="n">
-        <v>316930.4225779688</v>
+        <v>316930.4225780744</v>
       </c>
       <c r="PI3" t="n">
-        <v>393683.3268518295</v>
+        <v>393683.3268519776</v>
       </c>
       <c r="PJ3" t="n">
-        <v>3801.13119428818</v>
+        <v>3801.131194288087</v>
       </c>
       <c r="PK3" t="n">
-        <v>716.7542328845626</v>
+        <v>716.7542328845673</v>
       </c>
       <c r="PL3" t="n">
-        <v>1005.405768332098</v>
+        <v>1005.405768332105</v>
       </c>
       <c r="PM3" t="n">
-        <v>328.0203213055703</v>
+        <v>328.0203213056613</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.9993884871635161</v>
+        <v>0.9993884871635166</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.693518207719816e-05</v>
+        <v>1.693518207720568e-05</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.02392694597242629</v>
+        <v>0.02392694597243779</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.4634934155824801</v>
+        <v>0.4634934155822822</v>
       </c>
       <c r="PR3" t="n">
-        <v>0.8412855777998255</v>
+        <v>0.8412855777992362</v>
       </c>
       <c r="PS3" t="n">
-        <v>378699.7146656914</v>
+        <v>378699.7146533556</v>
       </c>
       <c r="PT3" t="n">
-        <v>2.801075364105361</v>
+        <v>2.801075364017715</v>
       </c>
       <c r="PU3" t="n">
-        <v>380020.7528866091</v>
+        <v>380020.7528867636</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02693962188871442</v>
+        <v>0.02693962188780752</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.002766125131571508</v>
+        <v>0.002766125131425959</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.01174717696682758</v>
+        <v>0.01174717696683481</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.03296430785499217</v>
+        <v>0.03296430785492225</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.04275610682308317</v>
+        <v>0.04275610682293819</v>
       </c>
       <c r="QA3" t="n">
-        <v>0.1171733386651888</v>
+        <v>0.1171733386639287</v>
       </c>
       <c r="QB3" t="n">
-        <v>1.252652148675537e-11</v>
+        <v>1.048572340067722e-11</v>
       </c>
       <c r="QC3" t="n">
         <v>0</v>
@@ -7066,154 +7066,154 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01561897651799007</v>
+        <v>0.01561897651784344</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.808493700565121e-07</v>
+        <v>-1.808493700585868e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378013287986178</v>
+        <v>0.01378013287985714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02533043296305213</v>
+        <v>0.02533043296311476</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05472936151153392</v>
+        <v>0.05472936151144529</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.271914518152784e-11</v>
+        <v>-1.522120623986822e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>274.1678062568424</v>
+        <v>274.1678062554757</v>
       </c>
       <c r="K2" t="n">
-        <v>112.026524559428</v>
+        <v>112.0265245588695</v>
       </c>
       <c r="L2" t="n">
-        <v>250.2359761961204</v>
+        <v>250.235976194873</v>
       </c>
       <c r="M2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N2" t="n">
-        <v>274.1678062568424</v>
+        <v>274.1678062554757</v>
       </c>
       <c r="O2" t="n">
-        <v>112.026524559428</v>
+        <v>112.0265245588695</v>
       </c>
       <c r="P2" t="n">
-        <v>250.2359761961204</v>
+        <v>250.235976194873</v>
       </c>
       <c r="Q2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R2" t="n">
-        <v>258.1003988411223</v>
+        <v>258.1003988415964</v>
       </c>
       <c r="S2" t="n">
-        <v>85911.4138719084</v>
+        <v>85911.41387245944</v>
       </c>
       <c r="T2" t="n">
-        <v>1.160401423945011</v>
+        <v>1.16040142395032</v>
       </c>
       <c r="U2" t="n">
-        <v>310164.4949294319</v>
+        <v>310164.4949297706</v>
       </c>
       <c r="V2" t="n">
-        <v>384200.4380945444</v>
+        <v>384200.4380950193</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="X2" t="n">
-        <v>-592172.0381345347</v>
+        <v>-592172.0381358532</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.5043828472789</v>
+        <v>716.5043828472915</v>
       </c>
       <c r="Z2" t="n">
-        <v>1005.193756831127</v>
+        <v>1005.193756831143</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402913619085819</v>
+        <v>1.402913619085816</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9993041882928915</v>
+        <v>0.9993041882928936</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.1708149414981</v>
+        <v>322.1708149417944</v>
       </c>
       <c r="AD2" t="n">
-        <v>120442.7448506769</v>
+        <v>120442.7448514495</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.302700185385054e-06</v>
+        <v>8.302700185331796e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>85851.86087876251</v>
+        <v>85851.86087931332</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.164797116526304e-05</v>
+        <v>1.164797116518831e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003888215538551067</v>
+        <v>0.003888215538543939</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.645352168416263e-05</v>
+        <v>1.645352168418702e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02319279784470018</v>
+        <v>0.02319279784473733</v>
       </c>
       <c r="AK2" t="n">
-        <v>85911.4138719084</v>
+        <v>85911.41387245944</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.160401423945011</v>
+        <v>1.16040142395032</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.160401423945011</v>
+        <v>1.16040142395032</v>
       </c>
       <c r="AN2" t="n">
-        <v>310164.4949294319</v>
+        <v>310164.4949297706</v>
       </c>
       <c r="AO2" t="n">
-        <v>384200.4380945444</v>
+        <v>384200.4380950193</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AQ2" t="n">
-        <v>716.5043828472789</v>
+        <v>716.5043828472915</v>
       </c>
       <c r="AR2" t="n">
-        <v>1005.193756831127</v>
+        <v>1005.193756831143</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.1708149414981</v>
+        <v>322.1708149417944</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9993041882928915</v>
+        <v>0.9993041882928936</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.645352168416263e-05</v>
+        <v>1.645352168418702e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02319279784470018</v>
+        <v>0.02319279784473733</v>
       </c>
       <c r="AW2" t="n">
         <v>295.6000000000885</v>
       </c>
       <c r="AX2" t="n">
-        <v>137999.9999951878</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="AZ2" t="n">
         <v>336973.3475828946</v>
@@ -7225,7 +7225,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="BC2" t="n">
-        <v>-696445.9368987704</v>
+        <v>-696445.9368987705</v>
       </c>
       <c r="BD2" t="n">
         <v>717.8632360362554</v>
@@ -7243,16 +7243,16 @@
         <v>344.8092213940488</v>
       </c>
       <c r="BI2" t="n">
-        <v>193456.8974370101</v>
+        <v>193456.8974370098</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.169110087303047e-06</v>
+        <v>5.169110087303055e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>137934.6617460249</v>
+        <v>137934.6617460247</v>
       </c>
       <c r="BL2" t="n">
-        <v>7.249809346988295e-06</v>
+        <v>7.249809346988306e-06</v>
       </c>
       <c r="BM2" t="n">
         <v>0.003395798695745237</v>
@@ -7264,13 +7264,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="BP2" t="n">
-        <v>137999.9999951878</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BS2" t="n">
         <v>336973.3475828946</v>
@@ -7303,10 +7303,10 @@
         <v>295.6000000000885</v>
       </c>
       <c r="CC2" t="n">
-        <v>137999.9999951878</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="CE2" t="n">
         <v>336973.3475828946</v>
@@ -7318,7 +7318,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="CH2" t="n">
-        <v>-696445.9368987704</v>
+        <v>-696445.9368987705</v>
       </c>
       <c r="CI2" t="n">
         <v>717.8632360362554</v>
@@ -7336,16 +7336,16 @@
         <v>344.8092213940488</v>
       </c>
       <c r="CN2" t="n">
-        <v>193456.8974370101</v>
+        <v>193456.8974370098</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.169110087303047e-06</v>
+        <v>5.169110087303055e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>137934.6617460249</v>
+        <v>137934.6617460247</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7.249809346988295e-06</v>
+        <v>7.249809346988306e-06</v>
       </c>
       <c r="CR2" t="n">
         <v>0.003395798695745237</v>
@@ -7357,13 +7357,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="CU2" t="n">
-        <v>137999.9999951878</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.627145819755046</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="CX2" t="n">
         <v>336973.3475828946</v>
@@ -7393,37 +7393,37 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.01607522977164721</v>
+        <v>0.01607522977162882</v>
       </c>
       <c r="DH2" t="n">
-        <v>-1.810779379319606e-07</v>
+        <v>-1.810779379335246e-07</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01379738282249336</v>
+        <v>0.01379738282249345</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02509842428960169</v>
+        <v>0.02509842428959957</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.05497085580580433</v>
+        <v>0.05497085580578391</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.05497085575753446</v>
+        <v>-0.05497085575751014</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.8510013742449876</v>
+        <v>0.8510013742399626</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.8510013742449876</v>
+        <v>0.8510013742399626</v>
       </c>
       <c r="DP2" t="n">
-        <v>505828.8338565332</v>
+        <v>505828.833855576</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.790805431790434</v>
+        <v>2.79080543178929</v>
       </c>
       <c r="DR2" t="n">
         <v>421784.4310884894</v>
@@ -7432,412 +7432,412 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>1509.720682934974</v>
+        <v>1509.720682851854</v>
       </c>
       <c r="DU2" t="n">
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.006627777970604633</v>
+        <v>0.006627777970247791</v>
       </c>
       <c r="DW2" t="n">
-        <v>-7.674187034455714e-08</v>
+        <v>-7.674187034202614e-08</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.01074875075105104</v>
+        <v>0.01074875075059981</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.005847480532924545</v>
+        <v>0.005847480532662639</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02607389603062386</v>
+        <v>0.0260738960300522</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.002221780598449399</v>
+        <v>0.002221780598053799</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.01178846742602582</v>
+        <v>0.01178846742606312</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.03262518113052377</v>
+        <v>0.03262518113021574</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.04229027499595087</v>
+        <v>0.04229027499554447</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.1149996001815737</v>
+        <v>0.1149996001799293</v>
       </c>
       <c r="EG2" t="n">
-        <v>-2.14629702899316e-12</v>
+        <v>-7.561479220541401e-12</v>
       </c>
       <c r="EH2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EI2" t="n">
-        <v>132.0703461803008</v>
+        <v>132.0703461818253</v>
       </c>
       <c r="EJ2" t="n">
-        <v>120.6414700981067</v>
+        <v>120.6414700990293</v>
       </c>
       <c r="EK2" t="n">
-        <v>-53.74208809445472</v>
+        <v>-53.74208809612992</v>
       </c>
       <c r="EL2" t="n">
-        <v>-24.01151114166551</v>
+        <v>-24.01151114216649</v>
       </c>
       <c r="EM2" t="n">
-        <v>250.0703951766683</v>
+        <v>250.0703951785808</v>
       </c>
       <c r="EN2" t="n">
-        <v>120.6414700981067</v>
+        <v>120.6414700990293</v>
       </c>
       <c r="EO2" t="n">
-        <v>-219.0452880944547</v>
+        <v>-219.0452880961299</v>
       </c>
       <c r="EP2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="EQ2" t="n">
-        <v>236.9136066838838</v>
+        <v>236.9136066839527</v>
       </c>
       <c r="ER2" t="n">
-        <v>62420.87548242479</v>
+        <v>62420.87548250058</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.9185702062538794</v>
+        <v>0.918570206254728</v>
       </c>
       <c r="ET2" t="n">
-        <v>295034.021427437</v>
+        <v>295034.0214274861</v>
       </c>
       <c r="EU2" t="n">
-        <v>362988.4086451437</v>
+        <v>362988.4086452124</v>
       </c>
       <c r="EV2" t="n">
-        <v>3788.783891572502</v>
+        <v>3788.783891572444</v>
       </c>
       <c r="EW2" t="n">
-        <v>-534626.0480530986</v>
+        <v>-534626.0480532771</v>
       </c>
       <c r="EX2" t="n">
-        <v>716.0444568079048</v>
+        <v>716.044456807906</v>
       </c>
       <c r="EY2" t="n">
-        <v>1004.555855530267</v>
+        <v>1004.555855530269</v>
       </c>
       <c r="EZ2" t="n">
         <v>1.402923863147455</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.9992433487767294</v>
+        <v>0.9992433487767295</v>
       </c>
       <c r="FB2" t="n">
-        <v>308.6467825568458</v>
+        <v>308.6467825568907</v>
       </c>
       <c r="FC2" t="n">
-        <v>87505.60326437975</v>
+        <v>87505.60326448605</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.142783962049505e-05</v>
+        <v>1.142783962048117e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>62373.73642505534</v>
+        <v>62373.73642513109</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.603238890781446e-05</v>
+        <v>1.603238890779499e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.004234886576986101</v>
+        <v>0.004234886576984875</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.534551064527705e-05</v>
+        <v>1.534551064528071e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.02151067060603356</v>
+        <v>0.0215106706060391</v>
       </c>
       <c r="FJ2" t="n">
-        <v>62420.87548242479</v>
+        <v>62420.87548250058</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.9185702062538794</v>
+        <v>0.918570206254728</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.9185702062538794</v>
+        <v>0.918570206254728</v>
       </c>
       <c r="FM2" t="n">
-        <v>295034.021427437</v>
+        <v>295034.0214274861</v>
       </c>
       <c r="FN2" t="n">
-        <v>362988.4086451437</v>
+        <v>362988.4086452124</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.783891572502</v>
+        <v>3788.783891572444</v>
       </c>
       <c r="FP2" t="n">
-        <v>716.0444568079048</v>
+        <v>716.044456807906</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1004.555855530267</v>
+        <v>1004.555855530269</v>
       </c>
       <c r="FR2" t="n">
-        <v>308.6467825568458</v>
+        <v>308.6467825568907</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9992433487767294</v>
+        <v>0.9992433487767295</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.534551064527705e-05</v>
+        <v>1.534551064528071e-05</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.02151067060603356</v>
+        <v>0.0215106706060391</v>
       </c>
       <c r="FV2" t="n">
-        <v>245.6233998717115</v>
+        <v>245.6233998719747</v>
       </c>
       <c r="FW2" t="n">
-        <v>70805.41930761698</v>
+        <v>70805.41930789572</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.00498027476134</v>
+        <v>1.004980274764218</v>
       </c>
       <c r="FY2" t="n">
-        <v>301255.1604568731</v>
+        <v>301255.1604570611</v>
       </c>
       <c r="FZ2" t="n">
-        <v>371709.6968152426</v>
+        <v>371709.6968155061</v>
       </c>
       <c r="GA2" t="n">
-        <v>3788.783891564588</v>
+        <v>3788.783891564531</v>
       </c>
       <c r="GB2" t="n">
-        <v>-558904.2840100254</v>
+        <v>-558904.2840107449</v>
       </c>
       <c r="GC2" t="n">
-        <v>716.2078264161113</v>
+        <v>716.2078264161166</v>
       </c>
       <c r="GD2" t="n">
-        <v>1004.778332387531</v>
+        <v>1004.778332387539</v>
       </c>
       <c r="GE2" t="n">
         <v>1.402914482819073</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.9992703300967095</v>
+        <v>0.9992703300967103</v>
       </c>
       <c r="GG2" t="n">
-        <v>314.2765528739552</v>
+        <v>314.2765528741238</v>
       </c>
       <c r="GH2" t="n">
-        <v>99261.65218784318</v>
+        <v>99261.65218823402</v>
       </c>
       <c r="GI2" t="n">
-        <v>1.007438399380655e-05</v>
+        <v>1.007438399376688e-05</v>
       </c>
       <c r="GJ2" t="n">
-        <v>70753.88657217562</v>
+        <v>70753.88657245424</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.413349921039187e-05</v>
+        <v>1.413349921033621e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.004085025008033129</v>
+        <v>0.004085025008028762</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.580534532947061e-05</v>
+        <v>1.580534532948441e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02220721764169652</v>
+        <v>0.02220721764171745</v>
       </c>
       <c r="GO2" t="n">
-        <v>70805.41930761698</v>
+        <v>70805.41930789572</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.00498027476134</v>
+        <v>1.004980274764218</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.00498027476134</v>
+        <v>1.004980274764218</v>
       </c>
       <c r="GR2" t="n">
-        <v>301255.1604568731</v>
+        <v>301255.1604570611</v>
       </c>
       <c r="GS2" t="n">
-        <v>371709.6968152426</v>
+        <v>371709.6968155061</v>
       </c>
       <c r="GT2" t="n">
-        <v>3788.783891564588</v>
+        <v>3788.783891564531</v>
       </c>
       <c r="GU2" t="n">
-        <v>716.2078264161113</v>
+        <v>716.2078264161166</v>
       </c>
       <c r="GV2" t="n">
-        <v>1004.778332387531</v>
+        <v>1004.778332387539</v>
       </c>
       <c r="GW2" t="n">
-        <v>314.2765528739552</v>
+        <v>314.2765528741238</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.9992703300967095</v>
+        <v>0.9992703300967103</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.580534532947061e-05</v>
+        <v>1.580534532948441e-05</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.02220721764169652</v>
+        <v>0.02220721764171745</v>
       </c>
       <c r="HA2" t="n">
-        <v>268.1325478429461</v>
+        <v>268.1325478431922</v>
       </c>
       <c r="HB2" t="n">
-        <v>96169.14342722816</v>
+        <v>96169.14342755642</v>
       </c>
       <c r="HC2" t="n">
-        <v>1.250276210433978</v>
+        <v>1.250276210437096</v>
       </c>
       <c r="HD2" t="n">
-        <v>317337.6916891159</v>
+        <v>317337.6916892919</v>
       </c>
       <c r="HE2" t="n">
-        <v>394256.0099172515</v>
+        <v>394256.0099174982</v>
       </c>
       <c r="HF2" t="n">
-        <v>3788.783891571252</v>
+        <v>3788.783891571194</v>
       </c>
       <c r="HG2" t="n">
-        <v>-621640.2681560606</v>
+        <v>-621640.268156731</v>
       </c>
       <c r="HH2" t="n">
-        <v>716.7853702994463</v>
+        <v>716.7853702994541</v>
       </c>
       <c r="HI2" t="n">
-        <v>1005.511312851199</v>
+        <v>1005.511312851209</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.402806690140919</v>
+        <v>1.402806690140917</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.9993647230925811</v>
+        <v>0.9993647230925822</v>
       </c>
       <c r="HL2" t="n">
-        <v>328.3798436109117</v>
+        <v>328.3798436110627</v>
       </c>
       <c r="HM2" t="n">
-        <v>134821.4368009898</v>
+        <v>134821.4368014501</v>
       </c>
       <c r="HN2" t="n">
-        <v>7.417218090295999e-06</v>
+        <v>7.417218090270675e-06</v>
       </c>
       <c r="HO2" t="n">
-        <v>96108.35031549951</v>
+        <v>96108.35031582773</v>
       </c>
       <c r="HP2" t="n">
-        <v>1.040492315930147e-05</v>
+        <v>1.040492315926594e-05</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.00374274775841839</v>
+        <v>0.003742747758414963</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.69653410436524e-05</v>
+        <v>1.696534104366487e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02397353035650512</v>
+        <v>0.02397353035652419</v>
       </c>
       <c r="HT2" t="n">
-        <v>96169.14342722816</v>
+        <v>96169.14342755642</v>
       </c>
       <c r="HU2" t="n">
-        <v>1.250276210433978</v>
+        <v>1.250276210437096</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.250276210433978</v>
+        <v>1.250276210437096</v>
       </c>
       <c r="HW2" t="n">
-        <v>317337.6916891159</v>
+        <v>317337.6916892919</v>
       </c>
       <c r="HX2" t="n">
-        <v>394256.0099172515</v>
+        <v>394256.0099174982</v>
       </c>
       <c r="HY2" t="n">
-        <v>3788.783891571252</v>
+        <v>3788.783891571194</v>
       </c>
       <c r="HZ2" t="n">
-        <v>716.7853702994463</v>
+        <v>716.7853702994541</v>
       </c>
       <c r="IA2" t="n">
-        <v>1005.511312851199</v>
+        <v>1005.511312851209</v>
       </c>
       <c r="IB2" t="n">
-        <v>328.3798436109117</v>
+        <v>328.3798436110627</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9993647230925811</v>
+        <v>0.9993647230925822</v>
       </c>
       <c r="ID2" t="n">
-        <v>1.69653410436524e-05</v>
+        <v>1.696534104366487e-05</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02397353035650512</v>
+        <v>0.02397353035652419</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02589546160911698</v>
+        <v>0.02589546160863865</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.002229373810545004</v>
+        <v>0.00222937381014615</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.01188913901085962</v>
+        <v>0.01188913901088907</v>
       </c>
       <c r="II2" t="n">
-        <v>0.03204945912068032</v>
+        <v>0.03204945912042027</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.04286665274800494</v>
+        <v>0.04286665274758036</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.1149300862992069</v>
+        <v>0.1149300862976745</v>
       </c>
       <c r="IL2" t="n">
-        <v>-0.1149300862920836</v>
+        <v>-0.1149300862868831</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.4279012568549177</v>
+        <v>0.4279012568597947</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.8102154608743116</v>
+        <v>0.81021546088039</v>
       </c>
       <c r="IO2" t="n">
-        <v>390092.591090924</v>
+        <v>390092.5910941746</v>
       </c>
       <c r="IP2" t="n">
-        <v>2.790805431826702</v>
+        <v>2.790805431850623</v>
       </c>
       <c r="IQ2" t="n">
-        <v>380593.4359520315</v>
+        <v>380593.4359523782</v>
       </c>
       <c r="IR2" t="n">
         <v>0</v>
       </c>
       <c r="IS2" t="n">
-        <v>2673.602138593618</v>
+        <v>2673.602138465852</v>
       </c>
       <c r="IT2" t="n">
-        <v>6.66433849339252</v>
+        <v>6.664338492751227</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.009324929023663933</v>
+        <v>0.009324929023230986</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.000794585755897812</v>
+        <v>0.0007945857557368611</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.01166789566350184</v>
+        <v>0.01166789566310576</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.01512446825228197</v>
+        <v>0.01512446825176601</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.00421596457684559</v>
+        <v>0.004215964576755619</v>
       </c>
     </row>
     <row r="3">
@@ -7845,145 +7845,145 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01561192565410074</v>
+        <v>0.01561192565410023</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.824277019598063e-07</v>
+        <v>-1.824277019609385e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01377981236503228</v>
+        <v>0.0137798123650324</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02533404515303102</v>
+        <v>0.0253340451530291</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05472560074446208</v>
+        <v>0.05472560074445977</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.614403055683056e-13</v>
+        <v>-9.93580218100476e-14</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.0073547237885</v>
+        <v>278.0073547227532</v>
       </c>
       <c r="K3" t="n">
-        <v>113.5953858947611</v>
+        <v>113.595385894338</v>
       </c>
       <c r="L3" t="n">
-        <v>253.7403743670658</v>
+        <v>253.7403743661209</v>
       </c>
       <c r="M3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N3" t="n">
-        <v>278.0073547237885</v>
+        <v>278.0073547227532</v>
       </c>
       <c r="O3" t="n">
-        <v>113.5953858947611</v>
+        <v>113.595385894338</v>
       </c>
       <c r="P3" t="n">
-        <v>253.7403743670658</v>
+        <v>253.7403743661209</v>
       </c>
       <c r="Q3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R3" t="n">
-        <v>257.0420666628575</v>
+        <v>257.042066663145</v>
       </c>
       <c r="S3" t="n">
-        <v>84687.59710188417</v>
+        <v>84687.59710221463</v>
       </c>
       <c r="T3" t="n">
-        <v>1.148586371848115</v>
+        <v>1.148586371851311</v>
       </c>
       <c r="U3" t="n">
-        <v>309408.3631738255</v>
+        <v>309408.3631740308</v>
       </c>
       <c r="V3" t="n">
-        <v>383140.3864483303</v>
+        <v>383140.3864486181</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="X3" t="n">
-        <v>-589228.5066239424</v>
+        <v>-589228.5066247421</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.4769681993673</v>
+        <v>716.4769681993747</v>
       </c>
       <c r="Z3" t="n">
-        <v>1005.158877009299</v>
+        <v>1005.158877009308</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402918616540375</v>
+        <v>1.402918616540374</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9992996080680452</v>
+        <v>0.9992996080680464</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.5087000055265</v>
+        <v>321.5087000057066</v>
       </c>
       <c r="AD3" t="n">
-        <v>118726.8971115987</v>
+        <v>118726.8971120621</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.422691271549346e-06</v>
+        <v>8.422691271516472e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>84628.49926703637</v>
+        <v>84628.49926736673</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.181635038622869e-05</v>
+        <v>1.181635038618257e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003904192220051603</v>
+        <v>0.003904192220047245</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.639904245958322e-05</v>
+        <v>1.639904245959804e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02310982003020849</v>
+        <v>0.02310982003023106</v>
       </c>
       <c r="AK3" t="n">
-        <v>84687.59710188417</v>
+        <v>84687.59710221463</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.148586371848115</v>
+        <v>1.148586371851311</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.148586371848115</v>
+        <v>1.148586371851311</v>
       </c>
       <c r="AN3" t="n">
-        <v>309408.3631738255</v>
+        <v>309408.3631740308</v>
       </c>
       <c r="AO3" t="n">
-        <v>383140.3864483303</v>
+        <v>383140.3864486181</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347718243</v>
       </c>
       <c r="AQ3" t="n">
-        <v>716.4769681993673</v>
+        <v>716.4769681993747</v>
       </c>
       <c r="AR3" t="n">
-        <v>1005.158877009299</v>
+        <v>1005.158877009308</v>
       </c>
       <c r="AS3" t="n">
-        <v>321.5087000055265</v>
+        <v>321.5087000057066</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9992996080680452</v>
+        <v>0.9992996080680464</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.639904245958322e-05</v>
+        <v>1.639904245959804e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02310982003020849</v>
+        <v>0.02310982003023106</v>
       </c>
       <c r="AW3" t="n">
         <v>295.6000000000885</v>
@@ -8172,37 +8172,37 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.01607888984665048</v>
+        <v>0.01607888984664742</v>
       </c>
       <c r="DH3" t="n">
-        <v>-1.826635900952508e-07</v>
+        <v>-1.826635900963838e-07</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0137974567886978</v>
+        <v>0.01379745678869783</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.02509665026847701</v>
+        <v>0.02509665026847635</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0549728142402352</v>
+        <v>0.0549728142402315</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.0549728141930734</v>
+        <v>-0.05497281419306969</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.864696211079233</v>
+        <v>0.8646962110755284</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.864696211079233</v>
+        <v>0.8646962110755284</v>
       </c>
       <c r="DP3" t="n">
-        <v>509376.8386571565</v>
+        <v>509376.8386562167</v>
       </c>
       <c r="DQ3" t="n">
-        <v>2.80107536407194</v>
+        <v>2.801075364069303</v>
       </c>
       <c r="DR3" t="n">
         <v>421784.4310884894</v>
@@ -8211,412 +8211,412 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>1538.279510083899</v>
+        <v>1538.279510077613</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.006449299912008658</v>
+        <v>0.00644929990897364</v>
       </c>
       <c r="DW3" t="n">
-        <v>-7.536104054455859e-08</v>
+        <v>-7.536104050956411e-08</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.01046551583682119</v>
+        <v>0.0104655158318957</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.005692452336906639</v>
+        <v>0.005692452334228026</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.02693962188871442</v>
+        <v>0.02693962188780752</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.002766125131571508</v>
+        <v>0.002766125131425959</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.01174717696682758</v>
+        <v>0.01174717696683481</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.03296430785499217</v>
+        <v>0.03296430785492225</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.04275610682308317</v>
+        <v>0.04275610682293819</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.1171733386651888</v>
+        <v>0.1171733386639287</v>
       </c>
       <c r="EG3" t="n">
-        <v>1.252652148675537e-11</v>
+        <v>1.048572340067722e-11</v>
       </c>
       <c r="EH3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EI3" t="n">
-        <v>138.6446015411357</v>
+        <v>138.6446015411038</v>
       </c>
       <c r="EJ3" t="n">
-        <v>124.5676052474156</v>
+        <v>124.5676052473967</v>
       </c>
       <c r="EK3" t="n">
-        <v>-60.87066008697741</v>
+        <v>-60.87066008694319</v>
       </c>
       <c r="EL3" t="n">
-        <v>-26.04270713303867</v>
+        <v>-26.04270713302939</v>
       </c>
       <c r="EM3" t="n">
-        <v>258.2086428912084</v>
+        <v>258.2086428911693</v>
       </c>
       <c r="EN3" t="n">
-        <v>124.5676052474156</v>
+        <v>124.5676052473967</v>
       </c>
       <c r="EO3" t="n">
-        <v>-226.1738600869774</v>
+        <v>-226.1738600869432</v>
       </c>
       <c r="EP3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="EQ3" t="n">
-        <v>234.2758147181775</v>
+        <v>234.2758147183421</v>
       </c>
       <c r="ER3" t="n">
-        <v>59999.978482567</v>
+        <v>59999.97848272046</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.8928923345244026</v>
+        <v>0.8928923345260584</v>
       </c>
       <c r="ET3" t="n">
-        <v>293150.1478795965</v>
+        <v>293150.1478797143</v>
       </c>
       <c r="EU3" t="n">
-        <v>360347.4752197688</v>
+        <v>360347.4752199339</v>
       </c>
       <c r="EV3" t="n">
-        <v>3788.919886555339</v>
+        <v>3788.919886555309</v>
       </c>
       <c r="EW3" t="n">
-        <v>-527304.8181048874</v>
+        <v>-527304.8181053394</v>
       </c>
       <c r="EX3" t="n">
-        <v>716.000631973674</v>
+        <v>716.0006319736767</v>
       </c>
       <c r="EY3" t="n">
-        <v>1004.493576218276</v>
+        <v>1004.49357621828</v>
       </c>
       <c r="EZ3" t="n">
         <v>1.402922750849205</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.9992365543642833</v>
+        <v>0.9992365543642836</v>
       </c>
       <c r="FB3" t="n">
-        <v>306.9215135798314</v>
+        <v>306.9215135799394</v>
       </c>
       <c r="FC3" t="n">
-        <v>84111.18606423197</v>
+        <v>84111.18606444713</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.188902507255509e-05</v>
+        <v>1.188902507252467e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>59954.25337091336</v>
+        <v>59954.25337106672</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.667938375970415e-05</v>
+        <v>1.667938375966148e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.004282461007751622</v>
+        <v>0.00428246100774862</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.520497864507228e-05</v>
+        <v>1.520497864508107e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.02129820211861765</v>
+        <v>0.02129820211863093</v>
       </c>
       <c r="FJ3" t="n">
-        <v>59999.978482567</v>
+        <v>59999.97848272046</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.8928923345244026</v>
+        <v>0.8928923345260584</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.8928923345244026</v>
+        <v>0.8928923345260584</v>
       </c>
       <c r="FM3" t="n">
-        <v>293150.1478795965</v>
+        <v>293150.1478797143</v>
       </c>
       <c r="FN3" t="n">
-        <v>360347.4752197688</v>
+        <v>360347.4752199339</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.919886555339</v>
+        <v>3788.919886555309</v>
       </c>
       <c r="FP3" t="n">
-        <v>716.000631973674</v>
+        <v>716.0006319736767</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1004.493576218276</v>
+        <v>1004.49357621828</v>
       </c>
       <c r="FR3" t="n">
-        <v>306.9215135798314</v>
+        <v>306.9215135799394</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9992365543642833</v>
+        <v>0.9992365543642836</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.520497864507228e-05</v>
+        <v>1.520497864508107e-05</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.02129820211861765</v>
+        <v>0.02129820211863093</v>
       </c>
       <c r="FV3" t="n">
-        <v>243.874642591945</v>
+        <v>243.8746425921048</v>
       </c>
       <c r="FW3" t="n">
-        <v>69028.44858528279</v>
+        <v>69028.44858544775</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.9867897489348677</v>
+        <v>0.9867897489365784</v>
       </c>
       <c r="FY3" t="n">
-        <v>300006.0987974849</v>
+        <v>300006.0987975992</v>
       </c>
       <c r="FZ3" t="n">
-        <v>369958.6379881194</v>
+        <v>369958.6379882796</v>
       </c>
       <c r="GA3" t="n">
-        <v>3788.919886561596</v>
+        <v>3788.919886561566</v>
       </c>
       <c r="GB3" t="n">
-        <v>-554062.8451566023</v>
+        <v>-554062.8451570406</v>
       </c>
       <c r="GC3" t="n">
-        <v>716.1724365116529</v>
+        <v>716.1724365116561</v>
       </c>
       <c r="GD3" t="n">
-        <v>1004.730309428894</v>
+        <v>1004.730309428899</v>
       </c>
       <c r="GE3" t="n">
         <v>1.40291675329304</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.999264841885352</v>
+        <v>0.9992648418853525</v>
       </c>
       <c r="GG3" t="n">
-        <v>313.1543021800076</v>
+        <v>313.1543021801103</v>
       </c>
       <c r="GH3" t="n">
-        <v>96770.14555276585</v>
+        <v>96770.14555299716</v>
       </c>
       <c r="GI3" t="n">
-        <v>1.03337655873911e-05</v>
+        <v>1.03337655873664e-05</v>
       </c>
       <c r="GJ3" t="n">
-        <v>68977.82446864301</v>
+        <v>68977.82446880786</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.449741286715407e-05</v>
+        <v>1.449741286711942e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.004114250297848144</v>
+        <v>0.004114250297845455</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.571352198244066e-05</v>
+        <v>1.571352198244906e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.02206795606644842</v>
+        <v>0.02206795606646116</v>
       </c>
       <c r="GO3" t="n">
-        <v>69028.44858528279</v>
+        <v>69028.44858544775</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.9867897489348677</v>
+        <v>0.9867897489365784</v>
       </c>
       <c r="GQ3" t="n">
-        <v>0.9867897489348677</v>
+        <v>0.9867897489365784</v>
       </c>
       <c r="GR3" t="n">
-        <v>300006.0987974849</v>
+        <v>300006.0987975992</v>
       </c>
       <c r="GS3" t="n">
-        <v>369958.6379881194</v>
+        <v>369958.6379882796</v>
       </c>
       <c r="GT3" t="n">
-        <v>3788.919886561596</v>
+        <v>3788.919886561566</v>
       </c>
       <c r="GU3" t="n">
-        <v>716.1724365116529</v>
+        <v>716.1724365116561</v>
       </c>
       <c r="GV3" t="n">
-        <v>1004.730309428894</v>
+        <v>1004.730309428899</v>
       </c>
       <c r="GW3" t="n">
-        <v>313.1543021800076</v>
+        <v>313.1543021801103</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.999264841885352</v>
+        <v>0.9992648418853525</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.571352198244066e-05</v>
+        <v>1.571352198244906e-05</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.02206795606644842</v>
+        <v>0.02206795606646116</v>
       </c>
       <c r="HA3" t="n">
-        <v>267.5608469979027</v>
+        <v>267.560846998257</v>
       </c>
       <c r="HB3" t="n">
-        <v>95409.7889226351</v>
+        <v>95409.78892308639</v>
       </c>
       <c r="HC3" t="n">
-        <v>1.243057550883355</v>
+        <v>1.243057550887587</v>
       </c>
       <c r="HD3" t="n">
-        <v>316929.2064532339</v>
+        <v>316929.2064534871</v>
       </c>
       <c r="HE3" t="n">
-        <v>393683.326851629</v>
+        <v>393683.3268519839</v>
       </c>
       <c r="HF3" t="n">
-        <v>3788.91988655986</v>
+        <v>3788.919886559828</v>
       </c>
       <c r="HG3" t="n">
-        <v>-620083.2872035245</v>
+        <v>-620083.2872045034</v>
       </c>
       <c r="HH3" t="n">
-        <v>716.7674741389327</v>
+        <v>716.7674741389436</v>
       </c>
       <c r="HI3" t="n">
-        <v>1005.488635078767</v>
+        <v>1005.488635078781</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.402810076289637</v>
+        <v>1.402810076289635</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.9993621730097679</v>
+        <v>0.9993621730097696</v>
       </c>
       <c r="HL3" t="n">
-        <v>328.0291303254003</v>
+        <v>328.0291303256178</v>
       </c>
       <c r="HM3" t="n">
-        <v>133756.8588092058</v>
+        <v>133756.8588098385</v>
       </c>
       <c r="HN3" t="n">
-        <v>7.476252125705388e-06</v>
+        <v>7.476252125670022e-06</v>
       </c>
       <c r="HO3" t="n">
-        <v>95349.22871596839</v>
+        <v>95349.2287164196</v>
       </c>
       <c r="HP3" t="n">
-        <v>1.048776181482134e-05</v>
+        <v>1.048776181477171e-05</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.003750723525147439</v>
+        <v>0.003750723525142484</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.693635799608794e-05</v>
+        <v>1.693635799610591e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02392923167037764</v>
+        <v>0.02392923167040509</v>
       </c>
       <c r="HT3" t="n">
-        <v>95409.7889226351</v>
+        <v>95409.78892308639</v>
       </c>
       <c r="HU3" t="n">
-        <v>1.243057550883355</v>
+        <v>1.243057550887587</v>
       </c>
       <c r="HV3" t="n">
-        <v>1.243057550883355</v>
+        <v>1.243057550887587</v>
       </c>
       <c r="HW3" t="n">
-        <v>316929.2064532339</v>
+        <v>316929.2064534871</v>
       </c>
       <c r="HX3" t="n">
-        <v>393683.326851629</v>
+        <v>393683.3268519839</v>
       </c>
       <c r="HY3" t="n">
-        <v>3788.91988655986</v>
+        <v>3788.919886559828</v>
       </c>
       <c r="HZ3" t="n">
-        <v>716.7674741389327</v>
+        <v>716.7674741389436</v>
       </c>
       <c r="IA3" t="n">
-        <v>1005.488635078767</v>
+        <v>1005.488635078781</v>
       </c>
       <c r="IB3" t="n">
-        <v>328.0291303254003</v>
+        <v>328.0291303256178</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9993621730097679</v>
+        <v>0.9993621730097696</v>
       </c>
       <c r="ID3" t="n">
-        <v>1.693635799608794e-05</v>
+        <v>1.693635799610591e-05</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02392923167037764</v>
+        <v>0.02392923167040509</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.0267166406060555</v>
+        <v>0.02671664060560636</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.0027764084183963</v>
+        <v>0.002776408418249965</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.01185591895981006</v>
+        <v>0.01185591895981899</v>
       </c>
       <c r="II3" t="n">
-        <v>0.03233884790322399</v>
+        <v>0.0323388479031454</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0.04334591739791169</v>
+        <v>0.0433459173977836</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.1170337332853975</v>
+        <v>0.1170337332846043</v>
       </c>
       <c r="IL3" t="n">
-        <v>-0.1170337332337049</v>
+        <v>-0.1170337332364377</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.4517265665871081</v>
+        <v>0.4517265665868451</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.841285577799835</v>
+        <v>0.8412855777994118</v>
       </c>
       <c r="IO3" t="n">
-        <v>395146.7975002472</v>
+        <v>395146.797500692</v>
       </c>
       <c r="IP3" t="n">
-        <v>2.80107536401516</v>
+        <v>2.801075364019931</v>
       </c>
       <c r="IQ3" t="n">
-        <v>380020.7528866091</v>
+        <v>380020.7528867636</v>
       </c>
       <c r="IR3" t="n">
         <v>0</v>
       </c>
       <c r="IS3" t="n">
-        <v>2843.394125884923</v>
+        <v>2843.394128125103</v>
       </c>
       <c r="IT3" t="n">
-        <v>7.380018007745576</v>
+        <v>7.380018007556508</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.00960751640131393</v>
+        <v>0.009607516404181048</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.0009864872149817734</v>
+        <v>0.0009864872152574675</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.01175610888983833</v>
+        <v>0.01175610889371747</v>
       </c>
       <c r="IX3" t="n">
-        <v>0.01524817234837236</v>
+        <v>0.0152481723533844</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.004189412748410294</v>
+        <v>0.004189412749804129</v>
       </c>
     </row>
   </sheetData>
@@ -9406,7 +9406,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>1.612732373205743e-11</v>
+        <v>2.044661449491323e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>2.097860483867203e-11</v>
+        <v>1.056363372286597e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
